--- a/AutoVFA-Tests/data/AutoVFA.xlsx
+++ b/AutoVFA-Tests/data/AutoVFA.xlsx
@@ -12,18 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Average_mM</t>
-  </si>
-  <si>
-    <t>1944J</t>
-  </si>
-  <si>
-    <t>1944R</t>
-  </si>
-  <si>
-    <t>1945J</t>
   </si>
   <si>
     <t>1945R</t>
@@ -231,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,9 +268,7 @@
     <col min="38" max="38" width="9.6135892868042" customWidth="1"/>
     <col min="39" max="39" width="9.6135892868042" customWidth="1"/>
     <col min="40" max="40" width="9.6135892868042" customWidth="1"/>
-    <col min="41" max="41" width="9.6135892868042" customWidth="1"/>
-    <col min="42" max="42" width="9.6135892868042" customWidth="1"/>
-    <col min="43" max="43" width="9.6135892868042" customWidth="1"/>
+    <col min="41" max="41" width="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -403,805 +392,742 @@
       <c r="AN1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0">
-        <v>15.764596453861348</v>
+        <v>19.291325883380317</v>
       </c>
       <c r="C2" s="0">
-        <v>19.188035060779015</v>
+        <v>16.033485211377236</v>
       </c>
       <c r="D2" s="0">
-        <v>15.81024638358396</v>
+        <v>19.72756740714368</v>
       </c>
       <c r="E2" s="0">
-        <v>19.291325883380317</v>
+        <v>16.224377976026208</v>
       </c>
       <c r="F2" s="0">
-        <v>16.033485211377236</v>
+        <v>17.56579123099322</v>
       </c>
       <c r="G2" s="0">
-        <v>19.72756740714368</v>
+        <v>20.237819226926106</v>
       </c>
       <c r="H2" s="0">
-        <v>16.224377976026208</v>
+        <v>17.79920654988345</v>
       </c>
       <c r="I2" s="0">
-        <v>17.56579123099322</v>
+        <v>16.790634729849003</v>
       </c>
       <c r="J2" s="0">
-        <v>20.237819226926106</v>
+        <v>19.352588704538128</v>
       </c>
       <c r="K2" s="0">
-        <v>17.79920654988345</v>
+        <v>19.869754199314027</v>
       </c>
       <c r="L2" s="0">
-        <v>16.790634729849003</v>
+        <v>19.113592755459305</v>
       </c>
       <c r="M2" s="0">
-        <v>19.352588704538128</v>
+        <v>15.81298411292758</v>
       </c>
       <c r="N2" s="0">
-        <v>19.869754199314027</v>
+        <v>22.581720350904718</v>
       </c>
       <c r="O2" s="0">
-        <v>19.113592755459305</v>
+        <v>20.913985496775442</v>
       </c>
       <c r="P2" s="0">
-        <v>15.81298411292758</v>
+        <v>15.931301647810013</v>
       </c>
       <c r="Q2" s="0">
-        <v>22.581720350904718</v>
+        <v>20.206477258902474</v>
       </c>
       <c r="R2" s="0">
-        <v>20.913985496775442</v>
+        <v>17.22262850116131</v>
       </c>
       <c r="S2" s="0">
-        <v>15.931301647810013</v>
+        <v>23.63165702679349</v>
       </c>
       <c r="T2" s="0">
-        <v>20.206477258902474</v>
+        <v>24.165519585139567</v>
       </c>
       <c r="U2" s="0">
-        <v>17.22262850116131</v>
+        <v>15.51044071223665</v>
       </c>
       <c r="V2" s="0">
-        <v>23.63165702679349</v>
+        <v>17.101292066131883</v>
       </c>
       <c r="W2" s="0">
-        <v>24.165519585139567</v>
+        <v>20.4474206072251</v>
       </c>
       <c r="X2" s="0">
-        <v>15.51044071223665</v>
+        <v>16.157179772444948</v>
       </c>
       <c r="Y2" s="0">
-        <v>17.101292066131883</v>
+        <v>20.219787280945056</v>
       </c>
       <c r="Z2" s="0">
-        <v>20.4474206072251</v>
+        <v>15.613668412186662</v>
       </c>
       <c r="AA2" s="0">
-        <v>16.157179772444948</v>
+        <v>19.16909814286957</v>
       </c>
       <c r="AB2" s="0">
-        <v>20.219787280945056</v>
+        <v>16.963676742718803</v>
       </c>
       <c r="AC2" s="0">
-        <v>15.613668412186662</v>
+        <v>18.35069204204369</v>
       </c>
       <c r="AD2" s="0">
-        <v>19.16909814286957</v>
+        <v>15.973717246852065</v>
       </c>
       <c r="AE2" s="0">
-        <v>16.963676742718803</v>
+        <v>20.266852460102427</v>
       </c>
       <c r="AF2" s="0">
-        <v>18.35069204204369</v>
+        <v>19.390257591699985</v>
       </c>
       <c r="AG2" s="0">
-        <v>15.973717246852065</v>
+        <v>17.531000668056418</v>
       </c>
       <c r="AH2" s="0">
-        <v>20.266852460102427</v>
+        <v>19.09217474707315</v>
       </c>
       <c r="AI2" s="0">
-        <v>19.390257591699985</v>
+        <v>16.191139433266514</v>
       </c>
       <c r="AJ2" s="0">
-        <v>17.531000668056418</v>
+        <v>22.253591927208817</v>
       </c>
       <c r="AK2" s="0">
-        <v>19.09217474707315</v>
+        <v>16.636229985798096</v>
       </c>
       <c r="AL2" s="0">
-        <v>16.191139433266514</v>
+        <v>21.776932997829487</v>
       </c>
       <c r="AM2" s="0">
-        <v>22.253591927208817</v>
+        <v>16.091989443091904</v>
       </c>
       <c r="AN2" s="0">
-        <v>16.636229985798096</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>21.776932997829487</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>16.091989443091904</v>
-      </c>
-      <c r="AQ2" s="0">
         <v>17.855962156722036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0">
+        <v>16.964198017547126</v>
+      </c>
+      <c r="C3" s="0">
         <v>11.873662652976511</v>
       </c>
-      <c r="C3" s="0">
-        <v>13.525774024548738</v>
-      </c>
       <c r="D3" s="0">
-        <v>12.304042420365192</v>
+        <v>18.12109401473064</v>
       </c>
       <c r="E3" s="0">
-        <v>16.964198017547126</v>
+        <v>11.873662652976511</v>
       </c>
       <c r="F3" s="0">
+        <v>14.950163168866528</v>
+      </c>
+      <c r="G3" s="0">
+        <v>13.657761409867593</v>
+      </c>
+      <c r="H3" s="0">
+        <v>16.24372638375444</v>
+      </c>
+      <c r="I3" s="0">
         <v>11.873662652976511</v>
       </c>
-      <c r="G3" s="0">
-        <v>18.12109401473064</v>
-      </c>
-      <c r="H3" s="0">
+      <c r="J3" s="0">
+        <v>14.829584718768972</v>
+      </c>
+      <c r="K3" s="0">
+        <v>12.285256528575932</v>
+      </c>
+      <c r="L3" s="0">
+        <v>16.186314281555457</v>
+      </c>
+      <c r="M3" s="0">
+        <v>12.192240200745966</v>
+      </c>
+      <c r="N3" s="0">
+        <v>21.409957050051855</v>
+      </c>
+      <c r="O3" s="0">
+        <v>21.498400537673593</v>
+      </c>
+      <c r="P3" s="0">
+        <v>12.234229954005727</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>17.503183438419462</v>
+      </c>
+      <c r="R3" s="0">
         <v>11.873662652976511</v>
       </c>
-      <c r="I3" s="0">
-        <v>14.950163168866528</v>
-      </c>
-      <c r="J3" s="0">
-        <v>13.657761409867593</v>
-      </c>
-      <c r="K3" s="0">
-        <v>16.24372638375444</v>
-      </c>
-      <c r="L3" s="0">
-        <v>11.873662652976511</v>
-      </c>
-      <c r="M3" s="0">
-        <v>14.829584718768972</v>
-      </c>
-      <c r="N3" s="0">
-        <v>12.285256528575932</v>
-      </c>
-      <c r="O3" s="0">
-        <v>16.186314281555457</v>
-      </c>
-      <c r="P3" s="0">
-        <v>12.192240200745966</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>21.409957050051855</v>
-      </c>
-      <c r="R3" s="0">
-        <v>21.498400537673593</v>
-      </c>
       <c r="S3" s="0">
-        <v>12.234229954005727</v>
+        <v>21.88468786371706</v>
       </c>
       <c r="T3" s="0">
-        <v>17.503183438419462</v>
+        <v>23.256574142880037</v>
       </c>
       <c r="U3" s="0">
         <v>11.873662652976511</v>
       </c>
       <c r="V3" s="0">
-        <v>21.88468786371706</v>
+        <v>16.18057622109347</v>
       </c>
       <c r="W3" s="0">
-        <v>23.256574142880037</v>
+        <v>20.40239482955532</v>
       </c>
       <c r="X3" s="0">
         <v>11.873662652976511</v>
       </c>
       <c r="Y3" s="0">
-        <v>16.18057622109347</v>
+        <v>17.997392411982464</v>
       </c>
       <c r="Z3" s="0">
-        <v>20.40239482955532</v>
+        <v>11.873662652976511</v>
       </c>
       <c r="AA3" s="0">
+        <v>16.564648544923543</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>12.453158654231842</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>19.668766410231754</v>
+      </c>
+      <c r="AD3" s="0">
         <v>11.873662652976511</v>
       </c>
-      <c r="AB3" s="0">
-        <v>17.997392411982464</v>
-      </c>
-      <c r="AC3" s="0">
+      <c r="AE3" s="0">
+        <v>15.78917687237865</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>17.271745167084397</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>16.083162003233042</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>14.60529817077685</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>12.310317302681256</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>17.367096392287273</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>12.4332281703177</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>17.252630401284875</v>
+      </c>
+      <c r="AM3" s="0">
         <v>11.873662652976511</v>
       </c>
-      <c r="AD3" s="0">
-        <v>16.564648544923543</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>12.453158654231842</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>19.668766410231754</v>
-      </c>
-      <c r="AG3" s="0">
-        <v>11.873662652976511</v>
-      </c>
-      <c r="AH3" s="0">
-        <v>15.78917687237865</v>
-      </c>
-      <c r="AI3" s="0">
-        <v>17.271745167084397</v>
-      </c>
-      <c r="AJ3" s="0">
-        <v>16.083162003233042</v>
-      </c>
-      <c r="AK3" s="0">
-        <v>14.60529817077685</v>
-      </c>
-      <c r="AL3" s="0">
-        <v>12.310317302681256</v>
-      </c>
-      <c r="AM3" s="0">
-        <v>17.367096392287273</v>
-      </c>
       <c r="AN3" s="0">
-        <v>12.4332281703177</v>
-      </c>
-      <c r="AO3" s="0">
-        <v>17.252630401284875</v>
-      </c>
-      <c r="AP3" s="0">
-        <v>11.873662652976511</v>
-      </c>
-      <c r="AQ3" s="0">
         <v>15.455736549775338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0">
-        <v>3.944154410334983</v>
+        <v>3.4349449069250353</v>
       </c>
       <c r="C4" s="0">
-        <v>3.550477362223724</v>
+        <v>3.3642000664254845</v>
       </c>
       <c r="D4" s="0">
-        <v>3.789275722604592</v>
+        <v>3.5685674100749147</v>
       </c>
       <c r="E4" s="0">
-        <v>3.4349449069250353</v>
+        <v>3.3642000664254845</v>
       </c>
       <c r="F4" s="0">
+        <v>3.6599250739199256</v>
+      </c>
+      <c r="G4" s="0">
+        <v>4.089478877206514</v>
+      </c>
+      <c r="H4" s="0">
+        <v>3.4988745195673037</v>
+      </c>
+      <c r="I4" s="0">
+        <v>4.974248560448551</v>
+      </c>
+      <c r="J4" s="0">
+        <v>3.559947759245677</v>
+      </c>
+      <c r="K4" s="0">
+        <v>4.62121375778844</v>
+      </c>
+      <c r="L4" s="0">
+        <v>3.547252716315385</v>
+      </c>
+      <c r="M4" s="0">
         <v>3.3642000664254845</v>
       </c>
-      <c r="G4" s="0">
-        <v>3.5685674100749147</v>
-      </c>
-      <c r="H4" s="0">
-        <v>3.3642000664254845</v>
-      </c>
-      <c r="I4" s="0">
-        <v>3.6599250739199256</v>
-      </c>
-      <c r="J4" s="0">
-        <v>4.089478877206514</v>
-      </c>
-      <c r="K4" s="0">
-        <v>3.4988745195673037</v>
-      </c>
-      <c r="L4" s="0">
-        <v>4.974248560448551</v>
-      </c>
-      <c r="M4" s="0">
-        <v>3.559947759245677</v>
-      </c>
       <c r="N4" s="0">
-        <v>4.62121375778844</v>
+        <v>3.526778369939563</v>
       </c>
       <c r="O4" s="0">
-        <v>3.547252716315385</v>
+        <v>3.5289609080890076</v>
       </c>
       <c r="P4" s="0">
         <v>3.3642000664254845</v>
       </c>
       <c r="Q4" s="0">
-        <v>3.526778369939563</v>
+        <v>3.4915041376719813</v>
       </c>
       <c r="R4" s="0">
-        <v>3.5289609080890076</v>
+        <v>3.3642000664254845</v>
       </c>
       <c r="S4" s="0">
+        <v>3.694084098024507</v>
+      </c>
+      <c r="T4" s="0">
+        <v>3.69095033821024</v>
+      </c>
+      <c r="U4" s="0">
+        <v>4.390612462245617</v>
+      </c>
+      <c r="V4" s="0">
+        <v>3.531003950527321</v>
+      </c>
+      <c r="W4" s="0">
+        <v>3.551601115035326</v>
+      </c>
+      <c r="X4" s="0">
+        <v>4.466729802927507</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>3.5894618132446716</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>4.443088217585245</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>3.536545506902572</v>
+      </c>
+      <c r="AB4" s="0">
         <v>3.3642000664254845</v>
       </c>
-      <c r="T4" s="0">
-        <v>3.4915041376719813</v>
-      </c>
-      <c r="U4" s="0">
+      <c r="AC4" s="0">
+        <v>3.513740491170145</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>4.702859650973725</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>3.6379535159455485</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>3.535487530040955</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>5.679482530390701</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>3.461810687942015</v>
+      </c>
+      <c r="AI4" s="0">
         <v>3.3642000664254845</v>
       </c>
-      <c r="V4" s="0">
-        <v>3.694084098024507</v>
-      </c>
-      <c r="W4" s="0">
-        <v>3.69095033821024</v>
-      </c>
-      <c r="X4" s="0">
-        <v>4.390612462245617</v>
-      </c>
-      <c r="Y4" s="0">
-        <v>3.531003950527321</v>
-      </c>
-      <c r="Z4" s="0">
-        <v>3.551601115035326</v>
-      </c>
-      <c r="AA4" s="0">
-        <v>4.466729802927507</v>
-      </c>
-      <c r="AB4" s="0">
-        <v>3.5894618132446716</v>
-      </c>
-      <c r="AC4" s="0">
-        <v>4.443088217585245</v>
-      </c>
-      <c r="AD4" s="0">
-        <v>3.536545506902572</v>
-      </c>
-      <c r="AE4" s="0">
+      <c r="AJ4" s="0">
+        <v>3.5464232640100164</v>
+      </c>
+      <c r="AK4" s="0">
         <v>3.3642000664254845</v>
       </c>
-      <c r="AF4" s="0">
-        <v>3.513740491170145</v>
-      </c>
-      <c r="AG4" s="0">
-        <v>4.702859650973725</v>
-      </c>
-      <c r="AH4" s="0">
-        <v>3.6379535159455485</v>
-      </c>
-      <c r="AI4" s="0">
-        <v>3.535487530040955</v>
-      </c>
-      <c r="AJ4" s="0">
-        <v>5.679482530390701</v>
-      </c>
-      <c r="AK4" s="0">
-        <v>3.461810687942015</v>
-      </c>
       <c r="AL4" s="0">
+        <v>3.5882316807562855</v>
+      </c>
+      <c r="AM4" s="0">
         <v>3.3642000664254845</v>
       </c>
-      <c r="AM4" s="0">
-        <v>3.5464232640100164</v>
-      </c>
       <c r="AN4" s="0">
-        <v>3.3642000664254845</v>
-      </c>
-      <c r="AO4" s="0">
-        <v>3.5882316807562855</v>
-      </c>
-      <c r="AP4" s="0">
-        <v>3.3642000664254845</v>
-      </c>
-      <c r="AQ4" s="0">
         <v>3.559552235107871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0">
+        <v>9.278158867630905</v>
+      </c>
+      <c r="C5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="C5" s="0">
-        <v>11.502580711832481</v>
-      </c>
       <c r="D5" s="0">
+        <v>9.829084667334072</v>
+      </c>
+      <c r="E5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="E5" s="0">
-        <v>9.278158867630905</v>
-      </c>
       <c r="F5" s="0">
+        <v>14.100412817993384</v>
+      </c>
+      <c r="G5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="G5" s="0">
-        <v>9.829084667334072</v>
-      </c>
       <c r="H5" s="0">
+        <v>10.566963829129307</v>
+      </c>
+      <c r="I5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="I5" s="0">
-        <v>14.100412817993384</v>
-      </c>
       <c r="J5" s="0">
+        <v>8.848282820932322</v>
+      </c>
+      <c r="K5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="K5" s="0">
-        <v>10.566963829129307</v>
-      </c>
       <c r="L5" s="0">
+        <v>8.496243501315059</v>
+      </c>
+      <c r="M5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="M5" s="0">
-        <v>8.848282820932322</v>
-      </c>
       <c r="N5" s="0">
-        <v>6.643092538663652</v>
+        <v>8.653564556461955</v>
       </c>
       <c r="O5" s="0">
-        <v>8.496243501315059</v>
+        <v>8.835207937737358</v>
       </c>
       <c r="P5" s="0">
         <v>6.643092538663652</v>
       </c>
       <c r="Q5" s="0">
-        <v>8.653564556461955</v>
+        <v>10.005384745199322</v>
       </c>
       <c r="R5" s="0">
-        <v>8.835207937737358</v>
+        <v>6.643092538663652</v>
       </c>
       <c r="S5" s="0">
-        <v>6.643092538663652</v>
+        <v>15.27208744755182</v>
       </c>
       <c r="T5" s="0">
-        <v>10.005384745199322</v>
+        <v>16.688352680145027</v>
       </c>
       <c r="U5" s="0">
         <v>6.643092538663652</v>
       </c>
       <c r="V5" s="0">
-        <v>15.27208744755182</v>
+        <v>10.955490488332</v>
       </c>
       <c r="W5" s="0">
-        <v>16.688352680145027</v>
+        <v>13.900849183166123</v>
       </c>
       <c r="X5" s="0">
         <v>6.643092538663652</v>
       </c>
       <c r="Y5" s="0">
-        <v>10.955490488332</v>
+        <v>14.939973836243691</v>
       </c>
       <c r="Z5" s="0">
-        <v>13.900849183166123</v>
+        <v>6.643092538663652</v>
       </c>
       <c r="AA5" s="0">
+        <v>9.929455137530653</v>
+      </c>
+      <c r="AB5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="AB5" s="0">
-        <v>14.939973836243691</v>
-      </c>
       <c r="AC5" s="0">
+        <v>7.594177422397548</v>
+      </c>
+      <c r="AD5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="AD5" s="0">
-        <v>9.929455137530653</v>
-      </c>
       <c r="AE5" s="0">
+        <v>10.504029570431957</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>7.977791425909727</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>7.796093766152598</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>8.692177650502325</v>
+      </c>
+      <c r="AI5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="AF5" s="0">
-        <v>7.594177422397548</v>
-      </c>
-      <c r="AG5" s="0">
+      <c r="AJ5" s="0">
+        <v>10.525040278487985</v>
+      </c>
+      <c r="AK5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="AH5" s="0">
-        <v>10.504029570431957</v>
-      </c>
-      <c r="AI5" s="0">
-        <v>7.977791425909727</v>
-      </c>
-      <c r="AJ5" s="0">
-        <v>7.796093766152598</v>
-      </c>
-      <c r="AK5" s="0">
-        <v>8.692177650502325</v>
-      </c>
       <c r="AL5" s="0">
+        <v>8.666911791396675</v>
+      </c>
+      <c r="AM5" s="0">
         <v>6.643092538663652</v>
       </c>
-      <c r="AM5" s="0">
-        <v>10.525040278487985</v>
-      </c>
       <c r="AN5" s="0">
-        <v>6.643092538663652</v>
-      </c>
-      <c r="AO5" s="0">
-        <v>8.666911791396675</v>
-      </c>
-      <c r="AP5" s="0">
-        <v>6.643092538663652</v>
-      </c>
-      <c r="AQ5" s="0">
         <v>10.94143594614087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0">
+        <v>3.6450686257079967</v>
+      </c>
+      <c r="C6" s="0">
+        <v>4.890864845986304</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3.9351150895219686</v>
+      </c>
+      <c r="E6" s="0">
+        <v>4.3453477803467635</v>
+      </c>
+      <c r="F6" s="0">
+        <v>4.056768026587358</v>
+      </c>
+      <c r="G6" s="0">
+        <v>5.680572277437591</v>
+      </c>
+      <c r="H6" s="0">
+        <v>3.736593845333646</v>
+      </c>
+      <c r="I6" s="0">
+        <v>4.620285230767561</v>
+      </c>
+      <c r="J6" s="0">
+        <v>3.7659753424796456</v>
+      </c>
+      <c r="K6" s="0">
+        <v>6.342757176160304</v>
+      </c>
+      <c r="L6" s="0">
+        <v>5.935143165246974</v>
+      </c>
+      <c r="M6" s="0">
+        <v>4.923654228294982</v>
+      </c>
+      <c r="N6" s="0">
+        <v>3.856274443191692</v>
+      </c>
+      <c r="O6" s="0">
+        <v>3.9205573974222054</v>
+      </c>
+      <c r="P6" s="0">
+        <v>5.593204739134685</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>3.82069096269722</v>
+      </c>
+      <c r="R6" s="0">
+        <v>5.99763165528471</v>
+      </c>
+      <c r="S6" s="0">
+        <v>5.370044094221869</v>
+      </c>
+      <c r="T6" s="0">
+        <v>5.975113632604527</v>
+      </c>
+      <c r="U6" s="0">
+        <v>4.6456797809243255</v>
+      </c>
+      <c r="V6" s="0">
+        <v>3.8519648925195336</v>
+      </c>
+      <c r="W6" s="0">
+        <v>3.939091718222177</v>
+      </c>
+      <c r="X6" s="0">
         <v>3.5177826849071216</v>
       </c>
-      <c r="C6" s="0">
-        <v>6.831216458858453</v>
-      </c>
-      <c r="D6" s="0">
-        <v>6.123375135903637</v>
-      </c>
-      <c r="E6" s="0">
-        <v>3.6450686257079967</v>
-      </c>
-      <c r="F6" s="0">
-        <v>4.890864845986304</v>
-      </c>
-      <c r="G6" s="0">
-        <v>3.9351150895219686</v>
-      </c>
-      <c r="H6" s="0">
-        <v>4.3453477803467635</v>
-      </c>
-      <c r="I6" s="0">
-        <v>4.056768026587358</v>
-      </c>
-      <c r="J6" s="0">
-        <v>5.680572277437591</v>
-      </c>
-      <c r="K6" s="0">
-        <v>3.736593845333646</v>
-      </c>
-      <c r="L6" s="0">
-        <v>4.620285230767561</v>
-      </c>
-      <c r="M6" s="0">
-        <v>3.7659753424796456</v>
-      </c>
-      <c r="N6" s="0">
-        <v>6.342757176160304</v>
-      </c>
-      <c r="O6" s="0">
-        <v>5.935143165246974</v>
-      </c>
-      <c r="P6" s="0">
-        <v>4.923654228294982</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>3.856274443191692</v>
-      </c>
-      <c r="R6" s="0">
-        <v>3.9205573974222054</v>
-      </c>
-      <c r="S6" s="0">
-        <v>5.593204739134685</v>
-      </c>
-      <c r="T6" s="0">
-        <v>3.82069096269722</v>
-      </c>
-      <c r="U6" s="0">
-        <v>5.99763165528471</v>
-      </c>
-      <c r="V6" s="0">
-        <v>5.370044094221869</v>
-      </c>
-      <c r="W6" s="0">
-        <v>5.975113632604527</v>
-      </c>
-      <c r="X6" s="0">
-        <v>4.6456797809243255</v>
-      </c>
       <c r="Y6" s="0">
-        <v>3.8519648925195336</v>
+        <v>3.9945635737253498</v>
       </c>
       <c r="Z6" s="0">
-        <v>3.939091718222177</v>
+        <v>4.2603842169564725</v>
       </c>
       <c r="AA6" s="0">
+        <v>3.7844863503000497</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>5.811532481471481</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>3.795085658548413</v>
+      </c>
+      <c r="AD6" s="0">
         <v>3.5177826849071216</v>
       </c>
-      <c r="AB6" s="0">
-        <v>3.9945635737253498</v>
-      </c>
-      <c r="AC6" s="0">
-        <v>4.2603842169564725</v>
-      </c>
-      <c r="AD6" s="0">
-        <v>3.7844863503000497</v>
-      </c>
       <c r="AE6" s="0">
-        <v>5.811532481471481</v>
+        <v>3.926229112574032</v>
       </c>
       <c r="AF6" s="0">
-        <v>3.795085658548413</v>
+        <v>3.9017211031419228</v>
       </c>
       <c r="AG6" s="0">
-        <v>3.5177826849071216</v>
+        <v>10.968815889878433</v>
       </c>
       <c r="AH6" s="0">
-        <v>3.926229112574032</v>
+        <v>3.701423362255948</v>
       </c>
       <c r="AI6" s="0">
-        <v>3.9017211031419228</v>
+        <v>7.945095074872674</v>
       </c>
       <c r="AJ6" s="0">
-        <v>10.968815889878433</v>
+        <v>3.656502399953692</v>
       </c>
       <c r="AK6" s="0">
-        <v>3.701423362255948</v>
+        <v>8.167401100285783</v>
       </c>
       <c r="AL6" s="0">
-        <v>7.945095074872674</v>
+        <v>3.992102580967984</v>
       </c>
       <c r="AM6" s="0">
-        <v>3.656502399953692</v>
+        <v>5.943053136113492</v>
       </c>
       <c r="AN6" s="0">
-        <v>8.167401100285783</v>
-      </c>
-      <c r="AO6" s="0">
-        <v>3.992102580967984</v>
-      </c>
-      <c r="AP6" s="0">
-        <v>5.943053136113492</v>
-      </c>
-      <c r="AQ6" s="0">
         <v>3.826502322075703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0">
+        <v>5.408242829758537</v>
+      </c>
+      <c r="C7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="C7" s="0">
-        <v>4.709494613761191</v>
-      </c>
       <c r="D7" s="0">
+        <v>5.466534189676541</v>
+      </c>
+      <c r="E7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="E7" s="0">
-        <v>5.408242829758537</v>
-      </c>
       <c r="F7" s="0">
+        <v>4.804098889781832</v>
+      </c>
+      <c r="G7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="G7" s="0">
-        <v>5.466534189676541</v>
-      </c>
       <c r="H7" s="0">
+        <v>4.968188301830931</v>
+      </c>
+      <c r="I7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="I7" s="0">
-        <v>4.804098889781832</v>
-      </c>
       <c r="J7" s="0">
+        <v>5.245706274556374</v>
+      </c>
+      <c r="K7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="K7" s="0">
-        <v>4.968188301830931</v>
-      </c>
       <c r="L7" s="0">
+        <v>4.542613326354282</v>
+      </c>
+      <c r="M7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="M7" s="0">
-        <v>5.245706274556374</v>
-      </c>
       <c r="N7" s="0">
-        <v>3.665913527820642</v>
+        <v>4.770366525362485</v>
       </c>
       <c r="O7" s="0">
-        <v>4.542613326354282</v>
+        <v>4.851335056261783</v>
       </c>
       <c r="P7" s="0">
         <v>3.665913527820642</v>
       </c>
       <c r="Q7" s="0">
-        <v>4.770366525362485</v>
+        <v>5.004323133202844</v>
       </c>
       <c r="R7" s="0">
-        <v>4.851335056261783</v>
+        <v>3.665913527820642</v>
       </c>
       <c r="S7" s="0">
-        <v>3.665913527820642</v>
+        <v>5.444155124758266</v>
       </c>
       <c r="T7" s="0">
-        <v>5.004323133202844</v>
+        <v>5.646067533773359</v>
       </c>
       <c r="U7" s="0">
         <v>3.665913527820642</v>
       </c>
       <c r="V7" s="0">
-        <v>5.444155124758266</v>
+        <v>5.21819428966576</v>
       </c>
       <c r="W7" s="0">
-        <v>5.646067533773359</v>
+        <v>5.866991728376531</v>
       </c>
       <c r="X7" s="0">
         <v>3.665913527820642</v>
       </c>
       <c r="Y7" s="0">
-        <v>5.21819428966576</v>
+        <v>6.420784617816041</v>
       </c>
       <c r="Z7" s="0">
-        <v>5.866991728376531</v>
+        <v>3.665913527820642</v>
       </c>
       <c r="AA7" s="0">
+        <v>5.4081301831458495</v>
+      </c>
+      <c r="AB7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="AB7" s="0">
-        <v>6.420784617816041</v>
-      </c>
       <c r="AC7" s="0">
+        <v>4.764574435856908</v>
+      </c>
+      <c r="AD7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="AD7" s="0">
-        <v>5.4081301831458495</v>
-      </c>
       <c r="AE7" s="0">
+        <v>5.226595456838593</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>4.431354440441968</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>4.410277320917791</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>5.0200089382502044</v>
+      </c>
+      <c r="AI7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="AF7" s="0">
-        <v>4.764574435856908</v>
-      </c>
-      <c r="AG7" s="0">
+      <c r="AJ7" s="0">
+        <v>6.656622095047776</v>
+      </c>
+      <c r="AK7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="AH7" s="0">
-        <v>5.226595456838593</v>
-      </c>
-      <c r="AI7" s="0">
-        <v>4.431354440441968</v>
-      </c>
-      <c r="AJ7" s="0">
-        <v>4.410277320917791</v>
-      </c>
-      <c r="AK7" s="0">
-        <v>5.0200089382502044</v>
-      </c>
       <c r="AL7" s="0">
+        <v>4.8909712487158385</v>
+      </c>
+      <c r="AM7" s="0">
         <v>3.665913527820642</v>
       </c>
-      <c r="AM7" s="0">
-        <v>6.656622095047776</v>
-      </c>
       <c r="AN7" s="0">
-        <v>3.665913527820642</v>
-      </c>
-      <c r="AO7" s="0">
-        <v>4.8909712487158385</v>
-      </c>
-      <c r="AP7" s="0">
-        <v>3.665913527820642</v>
-      </c>
-      <c r="AQ7" s="0">
         <v>5.016884421390767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>1</v>
@@ -1319,806 +1245,743 @@
       </c>
       <c r="AN9" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="AO9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ9" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0">
-        <v>2.4479028560743257</v>
+        <v>1.921706738499861</v>
       </c>
       <c r="C10" s="0">
-        <v>5.5593547399493515</v>
+        <v>0.3683915101091645</v>
       </c>
       <c r="D10" s="0">
-        <v>4.3002245761299696</v>
+        <v>5.394141133788948</v>
       </c>
       <c r="E10" s="0">
-        <v>1.921706738499861</v>
+        <v>2.6225847555797337</v>
       </c>
       <c r="F10" s="0">
-        <v>0.3683915101091645</v>
+        <v>1.2787328100475714</v>
       </c>
       <c r="G10" s="0">
-        <v>5.394141133788948</v>
+        <v>8.026605031002834</v>
       </c>
       <c r="H10" s="0">
-        <v>2.6225847555797337</v>
+        <v>0.10044329102875146</v>
       </c>
       <c r="I10" s="0">
-        <v>1.2787328100475714</v>
+        <v>8.336537011702438</v>
       </c>
       <c r="J10" s="0">
-        <v>8.026605031002834</v>
+        <v>1.7885192782081036</v>
       </c>
       <c r="K10" s="0">
-        <v>0.10044329102875146</v>
+        <v>0.08900722969225805</v>
       </c>
       <c r="L10" s="0">
-        <v>8.336537011702438</v>
+        <v>1.5055148183978528</v>
       </c>
       <c r="M10" s="0">
-        <v>1.7885192782081036</v>
-      </c>
-      <c r="N10" s="0">
-        <v>0.08900722969225805</v>
+        <v>2.157584871912212</v>
+      </c>
+      <c r="N10" s="2">
+        <v>12.339547508432807</v>
       </c>
       <c r="O10" s="0">
-        <v>1.5055148183978528</v>
+        <v>4.293476508418847</v>
       </c>
       <c r="P10" s="0">
-        <v>2.157584871912212</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>12.339547508432807</v>
+        <v>5.33629333898154</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>0.990226809162337</v>
       </c>
       <c r="R10" s="0">
-        <v>4.293476508418847</v>
-      </c>
-      <c r="S10" s="0">
-        <v>5.33629333898154</v>
+        <v>6.575523569530758</v>
+      </c>
+      <c r="S10" s="2">
+        <v>19.649514684715957</v>
       </c>
       <c r="T10" s="0">
-        <v>0.990226809162337</v>
+        <v>6.117425879671767</v>
       </c>
       <c r="U10" s="0">
-        <v>6.575523569530758</v>
-      </c>
-      <c r="V10" s="2">
-        <v>19.649514684715957</v>
+        <v>1.5576322282097974</v>
+      </c>
+      <c r="V10" s="0">
+        <v>4.203259672987991</v>
       </c>
       <c r="W10" s="0">
-        <v>6.117425879671767</v>
+        <v>3.234820384900716</v>
       </c>
       <c r="X10" s="0">
-        <v>1.5576322282097974</v>
+        <v>3.4843047000002674</v>
       </c>
       <c r="Y10" s="0">
-        <v>4.203259672987991</v>
+        <v>8.549356163902246</v>
       </c>
       <c r="Z10" s="0">
-        <v>3.234820384900716</v>
+        <v>0.2852506511228873</v>
       </c>
       <c r="AA10" s="0">
-        <v>3.4843047000002674</v>
-      </c>
-      <c r="AB10" s="0">
-        <v>8.549356163902246</v>
+        <v>5.717176177666015</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>11.374877583176724</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.2852506511228873</v>
+        <v>2.645158925307901</v>
       </c>
       <c r="AD10" s="0">
-        <v>5.717176177666015</v>
+        <v>1.718999262847788</v>
       </c>
       <c r="AE10" s="2">
-        <v>11.374877583176724</v>
+        <v>12.449929746453755</v>
       </c>
       <c r="AF10" s="0">
-        <v>2.645158925307901</v>
+        <v>4.566250608512269</v>
       </c>
       <c r="AG10" s="0">
-        <v>1.718999262847788</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>12.449929746453755</v>
+        <v>2.7022578863452424</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>2.0109722172676987</v>
       </c>
       <c r="AI10" s="0">
-        <v>4.566250608512269</v>
+        <v>7.0515096655013725</v>
       </c>
       <c r="AJ10" s="0">
-        <v>2.7022578863452424</v>
+        <v>1.391370994700381</v>
       </c>
       <c r="AK10" s="0">
-        <v>2.0109722172676987</v>
+        <v>3.4894593813475843</v>
       </c>
       <c r="AL10" s="0">
-        <v>7.0515096655013725</v>
+        <v>7.873267362099588</v>
       </c>
       <c r="AM10" s="0">
-        <v>1.391370994700381</v>
+        <v>1.9933504725046909</v>
       </c>
       <c r="AN10" s="0">
-        <v>3.4894593813475843</v>
-      </c>
-      <c r="AO10" s="0">
-        <v>7.873267362099588</v>
-      </c>
-      <c r="AP10" s="0">
-        <v>1.9933504725046909</v>
-      </c>
-      <c r="AQ10" s="0">
         <v>6.875021572205189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>16.8711345356178</v>
+        <v>1.1639625967766576</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>4.946739317190889</v>
+        <v>7.809547899371195</v>
       </c>
       <c r="E11" s="0">
-        <v>1.1639625967766576</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>0.7392177213399466</v>
       </c>
       <c r="G11" s="0">
-        <v>7.809547899371195</v>
+        <v>3.4022629873244123</v>
       </c>
       <c r="H11" s="0">
-        <v>0</v>
+        <v>0.41546292360351733</v>
       </c>
       <c r="I11" s="0">
-        <v>0.7392177213399466</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>3.4022629873244123</v>
+        <v>0.024617138139587175</v>
       </c>
       <c r="K11" s="0">
-        <v>0.41546292360351733</v>
+        <v>4.738050359049994</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>3.166345927688013</v>
       </c>
       <c r="M11" s="0">
-        <v>0.024617138139587175</v>
-      </c>
-      <c r="N11" s="0">
-        <v>4.738050359049994</v>
+        <v>3.695274053865499</v>
+      </c>
+      <c r="N11" s="2">
+        <v>12.258762112363797</v>
       </c>
       <c r="O11" s="0">
-        <v>3.166345927688013</v>
+        <v>6.167630585065769</v>
       </c>
       <c r="P11" s="0">
-        <v>3.695274053865499</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>12.258762112363797</v>
+        <v>4.167971087520889</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>0.6098546060588128</v>
       </c>
       <c r="R11" s="0">
-        <v>6.167630585065769</v>
-      </c>
-      <c r="S11" s="0">
-        <v>4.167971087520889</v>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>18.863063595687102</v>
       </c>
       <c r="T11" s="0">
-        <v>0.6098546060588128</v>
+        <v>6.055540209354341</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
       </c>
-      <c r="V11" s="2">
-        <v>18.863063595687102</v>
+      <c r="V11" s="0">
+        <v>4.858744436462983</v>
       </c>
       <c r="W11" s="0">
-        <v>6.055540209354341</v>
+        <v>2.466718184664392</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>4.858744436462983</v>
+        <v>6.875407314071047</v>
       </c>
       <c r="Z11" s="0">
-        <v>2.466718184664392</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>3.8293908308569735</v>
       </c>
       <c r="AB11" s="0">
-        <v>6.875407314071047</v>
+        <v>6.5809095272208005</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>3.3176504418817676</v>
       </c>
       <c r="AD11" s="0">
-        <v>3.8293908308569735</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>6.5809095272208005</v>
+        <v>7.712333541348657</v>
       </c>
       <c r="AF11" s="0">
-        <v>3.3176504418817676</v>
+        <v>6.038141763260692</v>
       </c>
       <c r="AG11" s="0">
-        <v>0</v>
+        <v>4.612324626459997</v>
       </c>
       <c r="AH11" s="0">
-        <v>7.712333541348657</v>
+        <v>1.9578923751531807</v>
       </c>
       <c r="AI11" s="0">
-        <v>6.038141763260692</v>
+        <v>5.016303905921435</v>
       </c>
       <c r="AJ11" s="0">
-        <v>4.612324626459997</v>
+        <v>0.7682082165967414</v>
       </c>
       <c r="AK11" s="0">
-        <v>1.9578923751531807</v>
+        <v>6.364760083382305</v>
       </c>
       <c r="AL11" s="0">
-        <v>5.016303905921435</v>
+        <v>4.734924788005677</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.7682082165967414</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>6.364760083382305</v>
-      </c>
-      <c r="AO11" s="0">
-        <v>4.734924788005677</v>
-      </c>
-      <c r="AP11" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="0">
         <v>7.482642789628924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3">
-        <v>20.794807033032576</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.01623215912503749</v>
       </c>
       <c r="C12" s="0">
-        <v>0.184961770244572</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15.864450148534784</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1.2690305574828555</v>
       </c>
       <c r="E12" s="0">
-        <v>0.01623215912503749</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0">
-        <v>1.2690305574828555</v>
+        <v>0.03676373766940357</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25.081414075159795</v>
       </c>
       <c r="H12" s="0">
-        <v>0</v>
+        <v>0.42614566829891726</v>
       </c>
       <c r="I12" s="0">
-        <v>0.03676373766940357</v>
-      </c>
-      <c r="J12" s="3">
-        <v>25.081414075159795</v>
+        <v>9.405477185822043</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.3370866654975231</v>
       </c>
       <c r="K12" s="0">
-        <v>0.42614566829891726</v>
+        <v>4.14916286127152</v>
       </c>
       <c r="L12" s="0">
-        <v>9.405477185822043</v>
+        <v>0.6898623943255627</v>
       </c>
       <c r="M12" s="0">
-        <v>0.3370866654975231</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>4.14916286127152</v>
+        <v>0.7173253138023246</v>
       </c>
       <c r="O12" s="0">
-        <v>0.6898623943255627</v>
+        <v>0.4112049922916791</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.7173253138023246</v>
+        <v>0.7395796551893947</v>
       </c>
       <c r="R12" s="0">
-        <v>0.4112049922916791</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>0</v>
+        <v>1.447410312911956</v>
       </c>
       <c r="T12" s="0">
-        <v>0.7395796551893947</v>
+        <v>0.35116645174580946</v>
       </c>
       <c r="U12" s="0">
-        <v>0</v>
+        <v>9.31963749752998</v>
       </c>
       <c r="V12" s="0">
-        <v>1.447410312911956</v>
+        <v>0.25939692852177126</v>
       </c>
       <c r="W12" s="0">
-        <v>0.35116645174580946</v>
-      </c>
-      <c r="X12" s="0">
-        <v>9.31963749752998</v>
+        <v>0.3683221041550288</v>
+      </c>
+      <c r="X12" s="2">
+        <v>11.898318008091534</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.25939692852177126</v>
+        <v>1.0967935474453234</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.3683221041550288</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>11.898318008091534</v>
+        <v>3.4110399569525183</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>0.10264841297592149</v>
       </c>
       <c r="AB12" s="0">
-        <v>1.0967935474453234</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>3.4110399569525183</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>0.10264841297592149</v>
+        <v>0.11858259080425315</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>11.922084190265972</v>
       </c>
       <c r="AE12" s="0">
-        <v>0</v>
+        <v>0.6355997470185494</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.11858259080425315</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>11.922084190265972</v>
+        <v>0.26177779082897296</v>
+      </c>
+      <c r="AG12" s="0">
+        <v>6.202512715963743</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.6355997470185494</v>
+        <v>0.16307703770248194</v>
       </c>
       <c r="AI12" s="0">
-        <v>0.26177779082897296</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>6.202512715963743</v>
+        <v>0.19373987782786228</v>
       </c>
       <c r="AK12" s="0">
-        <v>0.16307703770248194</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0</v>
+        <v>0.11664705716613055</v>
       </c>
       <c r="AM12" s="0">
-        <v>0.19373987782786228</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="0">
-        <v>0.11664705716613055</v>
-      </c>
-      <c r="AP12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="0">
         <v>0.9245916207149287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>0.30580152338726374</v>
       </c>
       <c r="C13" s="0">
-        <v>1.5398730154622569</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>4.534157055022149</v>
       </c>
       <c r="E13" s="0">
-        <v>0.30580152338726374</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>0.5428120063076644</v>
       </c>
       <c r="G13" s="0">
-        <v>4.534157055022149</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>0.9973117588853688</v>
       </c>
       <c r="I13" s="0">
-        <v>0.5428120063076644</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>0.42633020464468385</v>
       </c>
       <c r="K13" s="0">
-        <v>0.9973117588853688</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>2.160265883804373</v>
       </c>
       <c r="M13" s="0">
-        <v>0.42633020464468385</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>5.088089769548745</v>
       </c>
       <c r="O13" s="0">
-        <v>2.160265883804373</v>
+        <v>3.209835138052948</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>5.088089769548745</v>
+        <v>1.053767109970994</v>
       </c>
       <c r="R13" s="0">
-        <v>3.209835138052948</v>
-      </c>
-      <c r="S13" s="0">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>15.789980068335494</v>
       </c>
       <c r="T13" s="0">
-        <v>1.053767109970994</v>
+        <v>4.104031953227895</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
       </c>
-      <c r="V13" s="2">
-        <v>15.789980068335494</v>
+      <c r="V13" s="0">
+        <v>4.486440019269507</v>
       </c>
       <c r="W13" s="0">
-        <v>4.104031953227895</v>
+        <v>1.3803880033317033</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>4.486440019269507</v>
+        <v>4.125717096829243</v>
       </c>
       <c r="Z13" s="0">
-        <v>1.3803880033317033</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0</v>
+        <v>2.2450265300405876</v>
       </c>
       <c r="AB13" s="0">
-        <v>4.125717096829243</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0</v>
+        <v>0.24599962772039202</v>
       </c>
       <c r="AD13" s="0">
-        <v>2.2450265300405876</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>0</v>
+        <v>7.041000637769806</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.24599962772039202</v>
-      </c>
-      <c r="AG13" s="0">
-        <v>0</v>
+        <v>2.661332166147935</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>20.91547411124067</v>
       </c>
       <c r="AH13" s="0">
-        <v>7.041000637769806</v>
+        <v>1.7906140690522079</v>
       </c>
       <c r="AI13" s="0">
-        <v>2.661332166147935</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>20.91547411124067</v>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="0">
+        <v>0.7210203014764612</v>
       </c>
       <c r="AK13" s="0">
-        <v>1.7906140690522079</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>0</v>
+        <v>2.732632623351407</v>
       </c>
       <c r="AM13" s="0">
-        <v>0.7210203014764612</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="0">
-        <v>2.732632623351407</v>
-      </c>
-      <c r="AP13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="0">
         <v>7.809181368856256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.12974853384464732</v>
       </c>
       <c r="C14" s="0">
-        <v>0.6179340472694839</v>
-      </c>
-      <c r="D14" s="2">
-        <v>19.34620653352093</v>
+        <v>2.0256020630097753</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.8548106372218756</v>
       </c>
       <c r="E14" s="0">
-        <v>0.12974853384464732</v>
+        <v>4.688700894004392</v>
       </c>
       <c r="F14" s="0">
-        <v>2.0256020630097753</v>
+        <v>0.003070248174850391</v>
       </c>
       <c r="G14" s="0">
-        <v>0.8548106372218756</v>
+        <v>9.035831785775727</v>
       </c>
       <c r="H14" s="0">
-        <v>4.688700894004392</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0.003070248174850391</v>
+        <v>0.23029797760747653</v>
+      </c>
+      <c r="I14" s="3">
+        <v>33.74627268731796</v>
       </c>
       <c r="J14" s="0">
-        <v>9.035831785775727</v>
+        <v>0.13439153324057898</v>
       </c>
       <c r="K14" s="0">
-        <v>0.23029797760747653</v>
-      </c>
-      <c r="L14" s="3">
-        <v>33.74627268731796</v>
-      </c>
-      <c r="M14" s="0">
-        <v>0.13439153324057898</v>
+        <v>6.997621838847951</v>
+      </c>
+      <c r="L14" s="0">
+        <v>1.7582684533022892</v>
+      </c>
+      <c r="M14" s="2">
+        <v>11.480822125881206</v>
       </c>
       <c r="N14" s="0">
-        <v>6.997621838847951</v>
+        <v>1.2085212066250217</v>
       </c>
       <c r="O14" s="0">
-        <v>1.7582684533022892</v>
-      </c>
-      <c r="P14" s="2">
-        <v>11.480822125881206</v>
+        <v>1.0695598432798212</v>
+      </c>
+      <c r="P14" s="0">
+        <v>2.862516403905751</v>
       </c>
       <c r="Q14" s="0">
-        <v>1.2085212066250217</v>
-      </c>
-      <c r="R14" s="0">
-        <v>1.0695598432798212</v>
+        <v>1.501697547661403</v>
+      </c>
+      <c r="R14" s="2">
+        <v>17.70893286324125</v>
       </c>
       <c r="S14" s="0">
-        <v>2.862516403905751</v>
+        <v>2.9621470085378916</v>
       </c>
       <c r="T14" s="0">
-        <v>1.501697547661403</v>
-      </c>
-      <c r="U14" s="2">
-        <v>17.70893286324125</v>
+        <v>3.945701415191078</v>
+      </c>
+      <c r="U14" s="0">
+        <v>5.227764080470024</v>
       </c>
       <c r="V14" s="0">
-        <v>2.9621470085378916</v>
+        <v>0.3703049061747384</v>
       </c>
       <c r="W14" s="0">
-        <v>3.945701415191078</v>
+        <v>0.31617154569025246</v>
       </c>
       <c r="X14" s="0">
-        <v>5.227764080470024</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.3703049061747384</v>
+        <v>0.7035723440495678</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.31617154569025246</v>
+        <v>0.48047072828983584</v>
       </c>
       <c r="AA14" s="0">
-        <v>0</v>
+        <v>0.004530352021284238</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.7035723440495678</v>
+        <v>1.9011760400132118</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.48047072828983584</v>
+        <v>0.06975228916145061</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.004530352021284238</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>1.9011760400132118</v>
+        <v>0.2570239377737416</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.06975228916145061</v>
+        <v>0.8598851944799069</v>
       </c>
       <c r="AG14" s="0">
-        <v>0</v>
+        <v>0.2994825307197329</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.2570239377737416</v>
+        <v>0.11008654449437666</v>
       </c>
       <c r="AI14" s="0">
-        <v>0.8598851944799069</v>
+        <v>5.730000808840723</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.2994825307197329</v>
-      </c>
-      <c r="AK14" s="0">
-        <v>0.11008654449437666</v>
+        <v>0.21202209871758795</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>13.88618737921446</v>
       </c>
       <c r="AL14" s="0">
-        <v>5.730000808840723</v>
+        <v>0.02837844591517793</v>
       </c>
       <c r="AM14" s="0">
-        <v>0.21202209871758795</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>13.88618737921446</v>
-      </c>
-      <c r="AO14" s="0">
-        <v>0.02837844591517793</v>
-      </c>
-      <c r="AP14" s="0">
         <v>7.359423565687482</v>
       </c>
-      <c r="AQ14" s="0">
+      <c r="AN14" s="0">
         <v>0.7871449050633895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>0.23951521333414735</v>
       </c>
       <c r="C15" s="0">
-        <v>0.3715778107689883</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.833653265315752</v>
       </c>
       <c r="E15" s="0">
-        <v>0.23951521333414735</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0</v>
+        <v>0.046596939269701494</v>
       </c>
       <c r="G15" s="0">
-        <v>0.833653265315752</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0</v>
+        <v>0.7555549520102117</v>
       </c>
       <c r="I15" s="0">
-        <v>0.046596939269701494</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>0.25144688509976665</v>
       </c>
       <c r="K15" s="0">
-        <v>0.7555549520102117</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0</v>
+        <v>0.39518729409615766</v>
       </c>
       <c r="M15" s="0">
-        <v>0.25144688509976665</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>1.6860408479851183</v>
       </c>
       <c r="O15" s="0">
-        <v>0.39518729409615766</v>
+        <v>2.8849972934849877</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1.6860408479851183</v>
+        <v>0.8532907139627668</v>
       </c>
       <c r="R15" s="0">
-        <v>2.8849972934849877</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>0</v>
+        <v>5.313816343363533</v>
       </c>
       <c r="T15" s="0">
-        <v>0.8532907139627668</v>
+        <v>2.2217415094308897</v>
       </c>
       <c r="U15" s="0">
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>5.313816343363533</v>
+        <v>2.1940902958949895</v>
       </c>
       <c r="W15" s="0">
-        <v>2.2217415094308897</v>
+        <v>1.0326934259001064</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>2.1940902958949895</v>
+        <v>1.2760952006015636</v>
       </c>
       <c r="Z15" s="0">
-        <v>1.0326934259001064</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>0</v>
+        <v>1.1946681427338341</v>
       </c>
       <c r="AB15" s="0">
-        <v>1.2760952006015636</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="0">
-        <v>0</v>
+        <v>0.6484523614722588</v>
       </c>
       <c r="AD15" s="0">
-        <v>1.1946681427338341</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0</v>
+        <v>3.6839581361425533</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.6484523614722588</v>
-      </c>
-      <c r="AG15" s="0">
-        <v>0</v>
+        <v>1.3081639826044913</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>23.869006299095965</v>
       </c>
       <c r="AH15" s="0">
-        <v>3.6839581361425533</v>
+        <v>0.9798472467062607</v>
       </c>
       <c r="AI15" s="0">
-        <v>1.3081639826044913</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>23.869006299095965</v>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="0">
+        <v>0.4101293511198213</v>
       </c>
       <c r="AK15" s="0">
-        <v>0.9798472467062607</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>0</v>
+        <v>2.646999439094981</v>
       </c>
       <c r="AM15" s="0">
-        <v>0.4101293511198213</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="0">
-        <v>2.646999439094981</v>
-      </c>
-      <c r="AP15" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="0">
         <v>1.976850460004671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>1</v>
@@ -2236,806 +2099,743 @@
       </c>
       <c r="AN17" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="AO17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ17" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0">
-        <v>34.71770377693755</v>
+        <v>33.2467974063411</v>
       </c>
       <c r="C18" s="0">
-        <v>32.37251110158876</v>
+        <v>34.501951839247994</v>
       </c>
       <c r="D18" s="0">
-        <v>32.702560586585214</v>
+        <v>32.52500003953168</v>
       </c>
       <c r="E18" s="0">
-        <v>33.2467974063411</v>
+        <v>35.17819435472232</v>
       </c>
       <c r="F18" s="0">
-        <v>34.501951839247994</v>
+        <v>29.70287364483433</v>
       </c>
       <c r="G18" s="0">
-        <v>32.52500003953168</v>
+        <v>37.4660432586947</v>
       </c>
       <c r="H18" s="0">
-        <v>35.17819435472232</v>
+        <v>31.32926419855471</v>
       </c>
       <c r="I18" s="0">
-        <v>29.70287364483433</v>
+        <v>34.555849216385816</v>
       </c>
       <c r="J18" s="0">
-        <v>37.4660432586947</v>
+        <v>34.80433391776144</v>
       </c>
       <c r="K18" s="0">
-        <v>31.32926419855471</v>
+        <v>37.18980526280647</v>
       </c>
       <c r="L18" s="0">
-        <v>34.555849216385816</v>
+        <v>33.05785208970586</v>
       </c>
       <c r="M18" s="0">
-        <v>34.80433391776144</v>
+        <v>33.930546228243635</v>
       </c>
       <c r="N18" s="0">
-        <v>37.18980526280647</v>
+        <v>34.79920684107475</v>
       </c>
       <c r="O18" s="0">
-        <v>33.05785208970586</v>
+        <v>32.909931011654</v>
       </c>
       <c r="P18" s="0">
-        <v>33.930546228243635</v>
+        <v>33.58454562561347</v>
       </c>
       <c r="Q18" s="0">
-        <v>34.79920684107475</v>
+        <v>33.65942922490263</v>
       </c>
       <c r="R18" s="0">
-        <v>32.909931011654</v>
+        <v>35.29955155219528</v>
       </c>
       <c r="S18" s="0">
-        <v>33.58454562561347</v>
+        <v>31.282886168768698</v>
       </c>
       <c r="T18" s="0">
-        <v>33.65942922490263</v>
+        <v>30.41781292518172</v>
       </c>
       <c r="U18" s="0">
-        <v>35.29955155219528</v>
+        <v>33.19316404632809</v>
       </c>
       <c r="V18" s="0">
-        <v>31.282886168768698</v>
+        <v>30.084970263442443</v>
       </c>
       <c r="W18" s="0">
-        <v>30.41781292518172</v>
+        <v>30.018349057600993</v>
       </c>
       <c r="X18" s="0">
-        <v>33.19316404632809</v>
+        <v>34.87374209358721</v>
       </c>
       <c r="Y18" s="0">
-        <v>30.084970263442443</v>
+        <v>30.08008829466344</v>
       </c>
       <c r="Z18" s="0">
-        <v>30.018349057600993</v>
+        <v>33.57806016534104</v>
       </c>
       <c r="AA18" s="0">
-        <v>34.87374209358721</v>
+        <v>32.81526681443725</v>
       </c>
       <c r="AB18" s="0">
-        <v>30.08008829466344</v>
+        <v>34.65097878192231</v>
       </c>
       <c r="AC18" s="0">
-        <v>33.57806016534104</v>
+        <v>31.808857816514724</v>
       </c>
       <c r="AD18" s="0">
-        <v>32.81526681443725</v>
+        <v>34.443421360710374</v>
       </c>
       <c r="AE18" s="0">
-        <v>34.65097878192231</v>
+        <v>34.086149737556994</v>
       </c>
       <c r="AF18" s="0">
-        <v>31.808857816514724</v>
+        <v>34.30987955479641</v>
       </c>
       <c r="AG18" s="0">
-        <v>34.443421360710374</v>
+        <v>28.07530949028487</v>
       </c>
       <c r="AH18" s="0">
-        <v>34.086149737556994</v>
+        <v>34.983614729267956</v>
       </c>
       <c r="AI18" s="0">
-        <v>34.30987955479641</v>
+        <v>32.28881059085226</v>
       </c>
       <c r="AJ18" s="0">
-        <v>28.07530949028487</v>
+        <v>34.767998115798676</v>
       </c>
       <c r="AK18" s="0">
-        <v>34.983614729267956</v>
+        <v>32.689222055862594</v>
       </c>
       <c r="AL18" s="0">
-        <v>32.28881059085226</v>
+        <v>36.16697443218292</v>
       </c>
       <c r="AM18" s="0">
-        <v>34.767998115798676</v>
+        <v>33.82047997576806</v>
       </c>
       <c r="AN18" s="0">
-        <v>32.689222055862594</v>
-      </c>
-      <c r="AO18" s="0">
-        <v>36.16697443218292</v>
-      </c>
-      <c r="AP18" s="0">
-        <v>33.82047997576806</v>
-      </c>
-      <c r="AQ18" s="0">
         <v>31.508144507100212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0">
-        <v>26.157368258404492</v>
+        <v>29.237314139590758</v>
       </c>
       <c r="C19" s="0">
-        <v>22.777681930932697</v>
+        <v>25.550720843058386</v>
       </c>
       <c r="D19" s="0">
-        <v>25.46612791003007</v>
+        <v>29.85822723848</v>
       </c>
       <c r="E19" s="0">
-        <v>29.237314139590758</v>
+        <v>25.749446917508664</v>
       </c>
       <c r="F19" s="0">
-        <v>25.550720843058386</v>
+        <v>25.28045655036682</v>
       </c>
       <c r="G19" s="0">
-        <v>29.85822723848</v>
+        <v>25.312689879246165</v>
       </c>
       <c r="H19" s="0">
-        <v>25.749446917508664</v>
+        <v>28.591225928223068</v>
       </c>
       <c r="I19" s="0">
-        <v>25.28045655036682</v>
+        <v>24.508588492983627</v>
       </c>
       <c r="J19" s="0">
-        <v>25.312689879246165</v>
+        <v>26.671322767775305</v>
       </c>
       <c r="K19" s="0">
-        <v>28.591225928223068</v>
+        <v>22.99441719110868</v>
       </c>
       <c r="L19" s="0">
-        <v>24.508588492983627</v>
+        <v>27.990440829700503</v>
       </c>
       <c r="M19" s="0">
-        <v>26.671322767775305</v>
+        <v>26.160395238388162</v>
       </c>
       <c r="N19" s="0">
-        <v>22.99441719110868</v>
+        <v>32.99472120460773</v>
       </c>
       <c r="O19" s="0">
-        <v>27.990440829700503</v>
+        <v>33.8110974444742</v>
       </c>
       <c r="P19" s="0">
-        <v>26.160395238388162</v>
+        <v>25.795457028600552</v>
       </c>
       <c r="Q19" s="0">
-        <v>32.99472120460773</v>
+        <v>29.156500655173428</v>
       </c>
       <c r="R19" s="0">
-        <v>33.8110974444742</v>
+        <v>24.372354880546887</v>
       </c>
       <c r="S19" s="0">
-        <v>25.795457028600552</v>
+        <v>28.988252406750263</v>
       </c>
       <c r="T19" s="0">
-        <v>29.156500655173428</v>
+        <v>29.27414865497184</v>
       </c>
       <c r="U19" s="0">
-        <v>24.372354880546887</v>
+        <v>25.414051691369693</v>
       </c>
       <c r="V19" s="0">
-        <v>28.988252406750263</v>
+        <v>28.461720528066877</v>
       </c>
       <c r="W19" s="0">
-        <v>29.27414865497184</v>
+        <v>29.954685352444983</v>
       </c>
       <c r="X19" s="0">
-        <v>25.414051691369693</v>
+        <v>25.63872878751387</v>
       </c>
       <c r="Y19" s="0">
-        <v>28.461720528066877</v>
+        <v>26.785861099794296</v>
       </c>
       <c r="Z19" s="0">
-        <v>29.954685352444983</v>
+        <v>25.535139901820223</v>
       </c>
       <c r="AA19" s="0">
-        <v>25.63872878751387</v>
+        <v>28.36602607353133</v>
       </c>
       <c r="AB19" s="0">
-        <v>26.785861099794296</v>
+        <v>25.494618086434876</v>
       </c>
       <c r="AC19" s="0">
-        <v>25.535139901820223</v>
+        <v>34.09122771528318</v>
       </c>
       <c r="AD19" s="0">
-        <v>28.36602607353133</v>
+        <v>25.606618509776595</v>
       </c>
       <c r="AE19" s="0">
-        <v>25.494618086434876</v>
+        <v>26.605422829830076</v>
       </c>
       <c r="AF19" s="0">
-        <v>34.09122771528318</v>
+        <v>30.55237161092465</v>
       </c>
       <c r="AG19" s="0">
-        <v>25.606618509776595</v>
+        <v>25.761165064092566</v>
       </c>
       <c r="AH19" s="0">
-        <v>26.605422829830076</v>
+        <v>26.762185504991393</v>
       </c>
       <c r="AI19" s="0">
-        <v>30.55237161092465</v>
+        <v>24.578537354332887</v>
       </c>
       <c r="AJ19" s="0">
-        <v>25.761165064092566</v>
+        <v>27.1340774143254</v>
       </c>
       <c r="AK19" s="0">
-        <v>26.762185504991393</v>
+        <v>24.413264877817426</v>
       </c>
       <c r="AL19" s="0">
-        <v>24.578537354332887</v>
+        <v>28.67470033212908</v>
       </c>
       <c r="AM19" s="0">
-        <v>27.1340774143254</v>
+        <v>24.9542272809382</v>
       </c>
       <c r="AN19" s="0">
-        <v>24.413264877817426</v>
-      </c>
-      <c r="AO19" s="0">
-        <v>28.67470033212908</v>
-      </c>
-      <c r="AP19" s="0">
-        <v>24.9542272809382</v>
-      </c>
-      <c r="AQ19" s="0">
         <v>27.267788018293338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0">
-        <v>8.664873997178498</v>
+        <v>5.920378335266469</v>
       </c>
       <c r="C20" s="0">
-        <v>5.987443761833511</v>
+        <v>7.239361540719535</v>
       </c>
       <c r="D20" s="0">
-        <v>7.848600082842326</v>
+        <v>5.889635964218881</v>
       </c>
       <c r="E20" s="0">
-        <v>5.920378335266469</v>
+        <v>7.295667188976983</v>
       </c>
       <c r="F20" s="0">
-        <v>7.239361540719535</v>
+        <v>6.189020041518649</v>
       </c>
       <c r="G20" s="0">
-        <v>5.889635964218881</v>
+        <v>7.539628558919098</v>
       </c>
       <c r="H20" s="0">
-        <v>7.295667188976983</v>
+        <v>6.158506852440546</v>
       </c>
       <c r="I20" s="0">
-        <v>6.189020041518649</v>
+        <v>10.233345825832824</v>
       </c>
       <c r="J20" s="0">
-        <v>7.539628558919098</v>
+        <v>6.402695709367796</v>
       </c>
       <c r="K20" s="0">
-        <v>6.158506852440546</v>
+        <v>8.649306708728123</v>
       </c>
       <c r="L20" s="0">
-        <v>10.233345825832824</v>
+        <v>6.135628689407003</v>
       </c>
       <c r="M20" s="0">
-        <v>6.402695709367796</v>
+        <v>7.219075722580628</v>
       </c>
       <c r="N20" s="0">
-        <v>8.649306708728123</v>
+        <v>5.464316826341641</v>
       </c>
       <c r="O20" s="0">
-        <v>6.135628689407003</v>
+        <v>5.55939655933732</v>
       </c>
       <c r="P20" s="0">
-        <v>7.219075722580628</v>
+        <v>7.092739927404125</v>
       </c>
       <c r="Q20" s="0">
-        <v>5.464316826341641</v>
+        <v>5.816192469581843</v>
       </c>
       <c r="R20" s="0">
-        <v>5.55939655933732</v>
+        <v>6.905491616567618</v>
       </c>
       <c r="S20" s="0">
-        <v>7.092739927404125</v>
+        <v>4.9602536164004105</v>
       </c>
       <c r="T20" s="0">
-        <v>5.816192469581843</v>
+        <v>4.652566617841527</v>
       </c>
       <c r="U20" s="0">
-        <v>6.905491616567618</v>
+        <v>9.389168191846629</v>
       </c>
       <c r="V20" s="0">
-        <v>4.9602536164004105</v>
+        <v>6.216423552772378</v>
       </c>
       <c r="W20" s="0">
-        <v>4.652566617841527</v>
+        <v>5.215600682876033</v>
       </c>
       <c r="X20" s="0">
-        <v>9.389168191846629</v>
+        <v>9.631426822586432</v>
       </c>
       <c r="Y20" s="0">
-        <v>6.216423552772378</v>
+        <v>5.350479291996892</v>
       </c>
       <c r="Z20" s="0">
-        <v>5.215600682876033</v>
+        <v>9.554412205825923</v>
       </c>
       <c r="AA20" s="0">
-        <v>9.631426822586432</v>
+        <v>6.0600434694214895</v>
       </c>
       <c r="AB20" s="0">
-        <v>5.350479291996892</v>
+        <v>6.881676840442852</v>
       </c>
       <c r="AC20" s="0">
-        <v>9.554412205825923</v>
+        <v>6.0922597625611585</v>
       </c>
       <c r="AD20" s="0">
-        <v>6.0600434694214895</v>
+        <v>10.131250004428374</v>
       </c>
       <c r="AE20" s="0">
-        <v>6.881676840442852</v>
+        <v>6.1473561491816815</v>
       </c>
       <c r="AF20" s="0">
-        <v>6.0922597625611585</v>
+        <v>6.261175116750022</v>
       </c>
       <c r="AG20" s="0">
-        <v>10.131250004428374</v>
+        <v>9.0984261664515</v>
       </c>
       <c r="AH20" s="0">
-        <v>6.1473561491816815</v>
+        <v>6.344211207469192</v>
       </c>
       <c r="AI20" s="0">
-        <v>6.261175116750022</v>
+        <v>6.713605008820106</v>
       </c>
       <c r="AJ20" s="0">
-        <v>9.0984261664515</v>
+        <v>5.540847659185085</v>
       </c>
       <c r="AK20" s="0">
-        <v>6.344211207469192</v>
+        <v>6.616139120752526</v>
       </c>
       <c r="AL20" s="0">
-        <v>6.713605008820106</v>
+        <v>5.970775977449877</v>
       </c>
       <c r="AM20" s="0">
-        <v>5.540847659185085</v>
+        <v>7.070355250078116</v>
       </c>
       <c r="AN20" s="0">
-        <v>6.616139120752526</v>
-      </c>
-      <c r="AO20" s="0">
-        <v>5.970775977449877</v>
-      </c>
-      <c r="AP20" s="0">
-        <v>7.070355250078116</v>
-      </c>
-      <c r="AQ20" s="0">
         <v>6.292329222224031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0">
-        <v>14.634559106740697</v>
+        <v>15.991327569762678</v>
       </c>
       <c r="C21" s="0">
-        <v>19.399842115673916</v>
+        <v>14.295151205719101</v>
       </c>
       <c r="D21" s="0">
-        <v>13.74484745656468</v>
+        <v>16.20879988414636</v>
       </c>
       <c r="E21" s="0">
-        <v>15.991327569762678</v>
+        <v>14.406334733582561</v>
       </c>
       <c r="F21" s="0">
-        <v>14.295151205719101</v>
+        <v>23.843708489841795</v>
       </c>
       <c r="G21" s="0">
-        <v>16.20879988414636</v>
+        <v>12.322116525511037</v>
       </c>
       <c r="H21" s="0">
-        <v>14.406334733582561</v>
+        <v>18.599213529064485</v>
       </c>
       <c r="I21" s="0">
-        <v>23.843708489841795</v>
+        <v>13.712097615482037</v>
       </c>
       <c r="J21" s="0">
-        <v>12.322116525511037</v>
+        <v>15.913997361268837</v>
       </c>
       <c r="K21" s="0">
-        <v>18.599213529064485</v>
+        <v>12.433734291373526</v>
       </c>
       <c r="L21" s="0">
-        <v>13.712097615482037</v>
+        <v>14.693709490426286</v>
       </c>
       <c r="M21" s="0">
-        <v>15.913997361268837</v>
+        <v>14.255093966417505</v>
       </c>
       <c r="N21" s="0">
-        <v>12.433734291373526</v>
+        <v>13.380495601773418</v>
       </c>
       <c r="O21" s="0">
-        <v>14.693709490426286</v>
+        <v>13.907336075765024</v>
       </c>
       <c r="P21" s="0">
-        <v>14.255093966417505</v>
+        <v>14.005625931897516</v>
       </c>
       <c r="Q21" s="0">
-        <v>13.380495601773418</v>
+        <v>16.667168688113883</v>
       </c>
       <c r="R21" s="0">
-        <v>13.907336075765024</v>
+        <v>13.63587745319986</v>
       </c>
       <c r="S21" s="0">
-        <v>14.005625931897516</v>
+        <v>20.2782166771097</v>
       </c>
       <c r="T21" s="0">
-        <v>16.667168688113883</v>
+        <v>21.01661618096073</v>
       </c>
       <c r="U21" s="0">
-        <v>13.63587745319986</v>
+        <v>14.218687367358234</v>
       </c>
       <c r="V21" s="0">
-        <v>20.2782166771097</v>
+        <v>19.272114982679888</v>
       </c>
       <c r="W21" s="0">
-        <v>21.01661618096073</v>
+        <v>20.411500148237128</v>
       </c>
       <c r="X21" s="0">
-        <v>14.218687367358234</v>
+        <v>14.34439000727868</v>
       </c>
       <c r="Y21" s="0">
-        <v>19.272114982679888</v>
+        <v>22.25171710252041</v>
       </c>
       <c r="Z21" s="0">
-        <v>20.411500148237128</v>
+        <v>14.286433960037655</v>
       </c>
       <c r="AA21" s="0">
-        <v>14.34439000727868</v>
+        <v>17.008297417716456</v>
       </c>
       <c r="AB21" s="0">
-        <v>22.25171710252041</v>
+        <v>13.588851783364337</v>
       </c>
       <c r="AC21" s="0">
-        <v>14.286433960037655</v>
+        <v>13.166906920837318</v>
       </c>
       <c r="AD21" s="0">
-        <v>17.008297417716456</v>
+        <v>14.326424906476579</v>
       </c>
       <c r="AE21" s="0">
-        <v>13.588851783364337</v>
+        <v>17.704454344970888</v>
       </c>
       <c r="AF21" s="0">
-        <v>13.166906920837318</v>
+        <v>14.12155373023443</v>
       </c>
       <c r="AG21" s="0">
-        <v>14.326424906476579</v>
+        <v>12.458087343504214</v>
       </c>
       <c r="AH21" s="0">
-        <v>17.704454344970888</v>
+        <v>15.927427275056807</v>
       </c>
       <c r="AI21" s="0">
-        <v>14.12155373023443</v>
+        <v>13.256969996143841</v>
       </c>
       <c r="AJ21" s="0">
-        <v>12.458087343504214</v>
+        <v>16.44415003467237</v>
       </c>
       <c r="AK21" s="0">
-        <v>15.927427275056807</v>
+        <v>13.064509708107547</v>
       </c>
       <c r="AL21" s="0">
-        <v>13.256969996143841</v>
+        <v>14.411764291910078</v>
       </c>
       <c r="AM21" s="0">
-        <v>16.44415003467237</v>
+        <v>13.96142419597555</v>
       </c>
       <c r="AN21" s="0">
-        <v>13.064509708107547</v>
-      </c>
-      <c r="AO21" s="0">
-        <v>14.411764291910078</v>
-      </c>
-      <c r="AP21" s="0">
-        <v>13.96142419597555</v>
-      </c>
-      <c r="AQ21" s="0">
         <v>19.301535753927798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0">
-        <v>7.749583244146468</v>
+        <v>6.282577447203222</v>
       </c>
       <c r="C22" s="0">
-        <v>11.520415735170936</v>
+        <v>10.524201266188904</v>
       </c>
       <c r="D22" s="0">
-        <v>12.652929396893114</v>
+        <v>6.495270231593935</v>
       </c>
       <c r="E22" s="0">
-        <v>6.282577447203222</v>
+        <v>9.42038816051909</v>
       </c>
       <c r="F22" s="0">
-        <v>10.524201266188904</v>
+        <v>6.8600989974934805</v>
       </c>
       <c r="G22" s="0">
-        <v>6.495270231593935</v>
+        <v>10.559704764792368</v>
       </c>
       <c r="H22" s="0">
-        <v>9.42038816051909</v>
+        <v>6.576973025587858</v>
       </c>
       <c r="I22" s="0">
-        <v>6.8600989974934805</v>
+        <v>9.423256901987658</v>
       </c>
       <c r="J22" s="0">
-        <v>10.559704764792368</v>
+        <v>6.773206676279388</v>
       </c>
       <c r="K22" s="0">
-        <v>6.576973025587858</v>
+        <v>11.871324564321593</v>
       </c>
       <c r="L22" s="0">
-        <v>9.423256901987658</v>
+        <v>10.264853831963794</v>
       </c>
       <c r="M22" s="0">
-        <v>6.773206676279388</v>
+        <v>10.568380661969112</v>
       </c>
       <c r="N22" s="0">
-        <v>11.871324564321593</v>
+        <v>5.973471137833325</v>
       </c>
       <c r="O22" s="0">
-        <v>10.264853831963794</v>
+        <v>6.175120826284249</v>
       </c>
       <c r="P22" s="0">
-        <v>10.568380661969112</v>
+        <v>11.792789343986168</v>
       </c>
       <c r="Q22" s="0">
-        <v>5.973471137833325</v>
+        <v>6.364621118367213</v>
       </c>
       <c r="R22" s="0">
-        <v>6.175120826284249</v>
+        <v>12.261923762222324</v>
       </c>
       <c r="S22" s="0">
-        <v>11.792789343986168</v>
+        <v>7.202174597374063</v>
       </c>
       <c r="T22" s="0">
-        <v>6.364621118367213</v>
+        <v>7.525105449173553</v>
       </c>
       <c r="U22" s="0">
-        <v>12.261923762222324</v>
+        <v>9.93851107990757</v>
       </c>
       <c r="V22" s="0">
-        <v>7.202174597374063</v>
+        <v>6.781342345973906</v>
       </c>
       <c r="W22" s="0">
-        <v>7.525105449173553</v>
+        <v>5.784670708226483</v>
       </c>
       <c r="X22" s="0">
-        <v>9.93851107990757</v>
+        <v>7.595927122717832</v>
       </c>
       <c r="Y22" s="0">
-        <v>6.781342345973906</v>
+        <v>5.954949187547696</v>
       </c>
       <c r="Z22" s="0">
-        <v>5.784670708226483</v>
+        <v>9.162150972779273</v>
       </c>
       <c r="AA22" s="0">
-        <v>7.595927122717832</v>
+        <v>6.48502251164324</v>
       </c>
       <c r="AB22" s="0">
-        <v>5.954949187547696</v>
+        <v>11.885024342757827</v>
       </c>
       <c r="AC22" s="0">
-        <v>9.162150972779273</v>
+        <v>6.5801946622991085</v>
       </c>
       <c r="AD22" s="0">
-        <v>6.48502251164324</v>
+        <v>7.5864138846940605</v>
       </c>
       <c r="AE22" s="0">
-        <v>11.885024342757827</v>
+        <v>6.635475748729325</v>
       </c>
       <c r="AF22" s="0">
-        <v>6.5801946622991085</v>
+        <v>6.908937152456671</v>
       </c>
       <c r="AG22" s="0">
-        <v>7.5864138846940605</v>
+        <v>17.561345498188896</v>
       </c>
       <c r="AH22" s="0">
-        <v>6.635475748729325</v>
+        <v>6.783361232308347</v>
       </c>
       <c r="AI22" s="0">
-        <v>6.908937152456671</v>
+        <v>15.846371997734876</v>
       </c>
       <c r="AJ22" s="0">
-        <v>17.561345498188896</v>
+        <v>5.712833614356625</v>
       </c>
       <c r="AK22" s="0">
-        <v>6.783361232308347</v>
+        <v>16.00736616189495</v>
       </c>
       <c r="AL22" s="0">
-        <v>15.846371997734876</v>
+        <v>6.642671545958186</v>
       </c>
       <c r="AM22" s="0">
-        <v>5.712833614356625</v>
+        <v>12.48906336977225</v>
       </c>
       <c r="AN22" s="0">
-        <v>16.00736616189495</v>
-      </c>
-      <c r="AO22" s="0">
-        <v>6.642671545958186</v>
-      </c>
-      <c r="AP22" s="0">
-        <v>12.48906336977225</v>
-      </c>
-      <c r="AQ22" s="0">
         <v>6.764504152401618</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0">
-        <v>8.075911616592313</v>
+        <v>9.321605101835779</v>
       </c>
       <c r="C23" s="0">
-        <v>7.9421053548001765</v>
+        <v>7.888613305066069</v>
       </c>
       <c r="D23" s="0">
-        <v>7.5849345670845825</v>
+        <v>9.023066642029136</v>
       </c>
       <c r="E23" s="0">
-        <v>9.321605101835779</v>
+        <v>7.949968644690388</v>
       </c>
       <c r="F23" s="0">
-        <v>7.888613305066069</v>
+        <v>8.123842275944922</v>
       </c>
       <c r="G23" s="0">
-        <v>9.023066642029136</v>
+        <v>6.799817012836632</v>
       </c>
       <c r="H23" s="0">
-        <v>7.949968644690388</v>
+        <v>8.744816466129333</v>
       </c>
       <c r="I23" s="0">
-        <v>8.123842275944922</v>
+        <v>7.566861947328034</v>
       </c>
       <c r="J23" s="0">
-        <v>6.799817012836632</v>
+        <v>9.434443567547232</v>
       </c>
       <c r="K23" s="0">
-        <v>8.744816466129333</v>
+        <v>6.8614119816616075</v>
       </c>
       <c r="L23" s="0">
-        <v>7.566861947328034</v>
+        <v>7.857515068796561</v>
       </c>
       <c r="M23" s="0">
-        <v>9.434443567547232</v>
+        <v>7.866508182400954</v>
       </c>
       <c r="N23" s="0">
-        <v>6.8614119816616075</v>
+        <v>7.38778838836914</v>
       </c>
       <c r="O23" s="0">
-        <v>7.857515068796561</v>
+        <v>7.637118082485196</v>
       </c>
       <c r="P23" s="0">
-        <v>7.866508182400954</v>
+        <v>7.728842142498156</v>
       </c>
       <c r="Q23" s="0">
-        <v>7.38778838836914</v>
+        <v>8.336087843861</v>
       </c>
       <c r="R23" s="0">
-        <v>7.637118082485196</v>
+        <v>7.524800735268036</v>
       </c>
       <c r="S23" s="0">
-        <v>7.728842142498156</v>
+        <v>7.2882165335968585</v>
       </c>
       <c r="T23" s="0">
-        <v>8.336087843861</v>
+        <v>7.113750171870622</v>
       </c>
       <c r="U23" s="0">
-        <v>7.524800735268036</v>
+        <v>7.846417623189781</v>
       </c>
       <c r="V23" s="0">
-        <v>7.2882165335968585</v>
+        <v>9.183428327064505</v>
       </c>
       <c r="W23" s="0">
-        <v>7.113750171870622</v>
+        <v>8.615194050614377</v>
       </c>
       <c r="X23" s="0">
-        <v>7.846417623189781</v>
+        <v>7.915785166315988</v>
       </c>
       <c r="Y23" s="0">
-        <v>9.183428327064505</v>
+        <v>9.57690502347728</v>
       </c>
       <c r="Z23" s="0">
-        <v>8.615194050614377</v>
+        <v>7.883802794195875</v>
       </c>
       <c r="AA23" s="0">
-        <v>7.915785166315988</v>
+        <v>9.265343713250232</v>
       </c>
       <c r="AB23" s="0">
-        <v>9.57690502347728</v>
+        <v>7.498850165077794</v>
       </c>
       <c r="AC23" s="0">
-        <v>7.883802794195875</v>
+        <v>8.260553122504502</v>
       </c>
       <c r="AD23" s="0">
-        <v>9.265343713250232</v>
+        <v>7.905871333914019</v>
       </c>
       <c r="AE23" s="0">
-        <v>7.498850165077794</v>
+        <v>8.821141189731037</v>
       </c>
       <c r="AF23" s="0">
-        <v>8.260553122504502</v>
+        <v>7.8460828348378095</v>
       </c>
       <c r="AG23" s="0">
-        <v>7.905871333914019</v>
+        <v>7.04566643747795</v>
       </c>
       <c r="AH23" s="0">
-        <v>8.821141189731037</v>
+        <v>9.199200050906295</v>
       </c>
       <c r="AI23" s="0">
-        <v>7.8460828348378095</v>
+        <v>7.315705052116043</v>
       </c>
       <c r="AJ23" s="0">
-        <v>7.04566643747795</v>
+        <v>10.40009316166185</v>
       </c>
       <c r="AK23" s="0">
-        <v>9.199200050906295</v>
+        <v>7.209498075564963</v>
       </c>
       <c r="AL23" s="0">
-        <v>7.315705052116043</v>
+        <v>8.133113420369842</v>
       </c>
       <c r="AM23" s="0">
-        <v>10.40009316166185</v>
+        <v>7.704449927467822</v>
       </c>
       <c r="AN23" s="0">
-        <v>7.209498075564963</v>
-      </c>
-      <c r="AO23" s="0">
-        <v>8.133113420369842</v>
-      </c>
-      <c r="AP23" s="0">
-        <v>7.704449927467822</v>
-      </c>
-      <c r="AQ23" s="0">
         <v>8.865698346053005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>1</v>
@@ -3153,800 +2953,737 @@
       </c>
       <c r="AN25" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="AO25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ25" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0">
-        <v>0.20819321800457716</v>
+        <v>0.9250829932252109</v>
       </c>
       <c r="C26" s="0">
-        <v>7.194682108837694</v>
+        <v>0.02810481312648417</v>
       </c>
       <c r="D26" s="0">
-        <v>2.946562337410437</v>
+        <v>0.36648834537517766</v>
       </c>
       <c r="E26" s="0">
-        <v>0.9250829932252109</v>
+        <v>1.2583587089200505</v>
       </c>
       <c r="F26" s="0">
-        <v>0.02810481312648417</v>
+        <v>0.5763557177964956</v>
       </c>
       <c r="G26" s="0">
-        <v>0.36648834537517766</v>
+        <v>3.2129730666176535</v>
       </c>
       <c r="H26" s="0">
-        <v>1.2583587089200505</v>
+        <v>0.3182813395820283</v>
       </c>
       <c r="I26" s="0">
-        <v>0.5763557177964956</v>
+        <v>1.2846512873335514</v>
       </c>
       <c r="J26" s="0">
-        <v>3.2129730666176535</v>
+        <v>1.2474485716002932</v>
       </c>
       <c r="K26" s="0">
-        <v>0.3182813395820283</v>
+        <v>0.15604449639491602</v>
       </c>
       <c r="L26" s="0">
-        <v>1.2846512873335514</v>
+        <v>0.4498786045114833</v>
       </c>
       <c r="M26" s="0">
-        <v>1.2474485716002932</v>
+        <v>1.6717730867874707</v>
       </c>
       <c r="N26" s="0">
-        <v>0.15604449639491602</v>
+        <v>3.0920443741942147</v>
       </c>
       <c r="O26" s="0">
-        <v>0.4498786045114833</v>
+        <v>0.0396676211684007</v>
       </c>
       <c r="P26" s="0">
-        <v>1.6717730867874707</v>
+        <v>4.9570611481995615</v>
       </c>
       <c r="Q26" s="0">
-        <v>3.0920443741942147</v>
+        <v>0.7222036956023095</v>
       </c>
       <c r="R26" s="0">
-        <v>0.0396676211684007</v>
+        <v>2.0784474772864154</v>
       </c>
       <c r="S26" s="0">
-        <v>4.9570611481995615</v>
+        <v>4.194977839622484</v>
       </c>
       <c r="T26" s="0">
-        <v>0.7222036956023095</v>
+        <v>1.1512216185365796</v>
       </c>
       <c r="U26" s="0">
-        <v>2.0784474772864154</v>
+        <v>0.3548139623790659</v>
       </c>
       <c r="V26" s="0">
-        <v>4.194977839622484</v>
+        <v>0.44839398482427384</v>
       </c>
       <c r="W26" s="0">
-        <v>1.1512216185365796</v>
+        <v>1.1169367347693122</v>
       </c>
       <c r="X26" s="0">
-        <v>0.3548139623790659</v>
+        <v>1.1222276064732937</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.44839398482427384</v>
+        <v>3.244229934632626</v>
       </c>
       <c r="Z26" s="0">
-        <v>1.1169367347693122</v>
+        <v>0.18048042130038824</v>
       </c>
       <c r="AA26" s="0">
-        <v>1.1222276064732937</v>
+        <v>2.257925049107166</v>
       </c>
       <c r="AB26" s="0">
-        <v>3.244229934632626</v>
+        <v>8.891559855609135</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.18048042130038824</v>
+        <v>0.5841218763192988</v>
       </c>
       <c r="AD26" s="0">
-        <v>2.257925049107166</v>
+        <v>0.08204942367644998</v>
       </c>
       <c r="AE26" s="0">
-        <v>8.891559855609135</v>
+        <v>4.542774629334597</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.5841218763192988</v>
+        <v>0.6003180062191693</v>
       </c>
       <c r="AG26" s="0">
-        <v>0.08204942367644998</v>
+        <v>4.539355817538132</v>
       </c>
       <c r="AH26" s="0">
-        <v>4.542774629334597</v>
+        <v>0.3903662003948397</v>
       </c>
       <c r="AI26" s="0">
-        <v>0.6003180062191693</v>
+        <v>5.100803148937665</v>
       </c>
       <c r="AJ26" s="0">
-        <v>4.539355817538132</v>
+        <v>1.2148313834334947</v>
       </c>
       <c r="AK26" s="0">
-        <v>0.3903662003948397</v>
+        <v>1.4341786028992207</v>
       </c>
       <c r="AL26" s="0">
-        <v>5.100803148937665</v>
+        <v>3.071797396658242</v>
       </c>
       <c r="AM26" s="0">
-        <v>1.2148313834334947</v>
+        <v>2.2383567964636137</v>
       </c>
       <c r="AN26" s="0">
-        <v>1.4341786028992207</v>
-      </c>
-      <c r="AO26" s="0">
-        <v>3.071797396658242</v>
-      </c>
-      <c r="AP26" s="0">
-        <v>2.2383567964636137</v>
-      </c>
-      <c r="AQ26" s="0">
         <v>0.8743922729710295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0">
-        <v>2.6560283935919453</v>
-      </c>
-      <c r="C27" s="2">
-        <v>15.253614535567584</v>
+        <v>0.16725995903489288</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.34028687314194944</v>
       </c>
       <c r="D27" s="0">
-        <v>6.29914934448355</v>
+        <v>2.786869787190642</v>
       </c>
       <c r="E27" s="0">
-        <v>0.16725995903489288</v>
+        <v>1.3644511915011526</v>
       </c>
       <c r="F27" s="0">
-        <v>0.34028687314194944</v>
+        <v>0.03681570115324021</v>
       </c>
       <c r="G27" s="0">
-        <v>2.786869787190642</v>
+        <v>1.4187472511233736</v>
       </c>
       <c r="H27" s="0">
-        <v>1.3644511915011526</v>
+        <v>0.19762542113635367</v>
       </c>
       <c r="I27" s="0">
-        <v>0.03681570115324021</v>
+        <v>7.055663871151396</v>
       </c>
       <c r="J27" s="0">
-        <v>1.4187472511233736</v>
+        <v>0.5657478334212843</v>
       </c>
       <c r="K27" s="0">
-        <v>0.19762542113635367</v>
+        <v>4.805011362440101</v>
       </c>
       <c r="L27" s="0">
-        <v>7.055663871151396</v>
+        <v>1.2113937234327907</v>
       </c>
       <c r="M27" s="0">
-        <v>0.5657478334212843</v>
+        <v>3.209662789500909</v>
       </c>
       <c r="N27" s="0">
-        <v>4.805011362440101</v>
+        <v>3.010681199819405</v>
       </c>
       <c r="O27" s="0">
-        <v>1.2113937234327907</v>
+        <v>1.9644941411627537</v>
       </c>
       <c r="P27" s="0">
-        <v>3.209662789500909</v>
+        <v>4.547345662142837</v>
       </c>
       <c r="Q27" s="0">
-        <v>3.010681199819405</v>
+        <v>0.3418247021303851</v>
       </c>
       <c r="R27" s="0">
-        <v>1.9644941411627537</v>
+        <v>4.500151243680124</v>
       </c>
       <c r="S27" s="0">
-        <v>4.547345662142837</v>
+        <v>3.3942471122326103</v>
       </c>
       <c r="T27" s="0">
-        <v>0.3418247021303851</v>
+        <v>1.0892249971339318</v>
       </c>
       <c r="U27" s="0">
-        <v>4.500151243680124</v>
+        <v>1.9123933444996095</v>
       </c>
       <c r="V27" s="0">
-        <v>3.3942471122326103</v>
+        <v>1.1045325179193888</v>
       </c>
       <c r="W27" s="0">
-        <v>1.0892249971339318</v>
+        <v>0.3485429199509276</v>
       </c>
       <c r="X27" s="0">
-        <v>1.9123933444996095</v>
+        <v>2.3625389915080452</v>
       </c>
       <c r="Y27" s="0">
-        <v>1.1045325179193888</v>
+        <v>1.5657732351653557</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.3485429199509276</v>
+        <v>0.465729873584358</v>
       </c>
       <c r="AA27" s="0">
-        <v>2.3625389915080452</v>
+        <v>0.36814949239855027</v>
       </c>
       <c r="AB27" s="0">
-        <v>1.5657732351653557</v>
+        <v>9.069400776157725</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.465729873584358</v>
+        <v>1.2568839049377085</v>
       </c>
       <c r="AD27" s="0">
-        <v>0.36814949239855027</v>
+        <v>1.801035985357438</v>
       </c>
       <c r="AE27" s="0">
-        <v>9.069400776157725</v>
+        <v>0.21791164998718218</v>
       </c>
       <c r="AF27" s="0">
-        <v>1.2568839049377085</v>
+        <v>2.0741493241901465</v>
       </c>
       <c r="AG27" s="0">
-        <v>1.801035985357438</v>
+        <v>6.447816600040396</v>
       </c>
       <c r="AH27" s="0">
-        <v>0.21791164998718218</v>
+        <v>0.33727625624351676</v>
       </c>
       <c r="AI27" s="0">
-        <v>2.0741493241901465</v>
+        <v>6.9671100116933715</v>
       </c>
       <c r="AJ27" s="0">
-        <v>6.447816600040396</v>
+        <v>0.9447563423080557</v>
       </c>
       <c r="AK27" s="0">
-        <v>0.33727625624351676</v>
+        <v>1.444616797725193</v>
       </c>
       <c r="AL27" s="0">
-        <v>6.9671100116933715</v>
+        <v>0.07244084977217914</v>
       </c>
       <c r="AM27" s="0">
-        <v>0.9447563423080557</v>
+        <v>0.2450609949787266</v>
       </c>
       <c r="AN27" s="0">
-        <v>1.444616797725193</v>
-      </c>
-      <c r="AO27" s="0">
-        <v>0.07244084977217914</v>
-      </c>
-      <c r="AP27" s="0">
-        <v>0.2450609949787266</v>
-      </c>
-      <c r="AQ27" s="0">
         <v>1.4835409119233396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2">
-        <v>18.18900904113587</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1.0129436796704734</v>
       </c>
       <c r="C28" s="0">
-        <v>1.823538533040049</v>
-      </c>
-      <c r="D28" s="2">
-        <v>17.200489709149515</v>
+        <v>0.34028687314195205</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3.7603189422424514</v>
       </c>
       <c r="E28" s="0">
-        <v>1.0129436796704734</v>
+        <v>1.3644511915011648</v>
       </c>
       <c r="F28" s="0">
-        <v>0.34028687314195205</v>
-      </c>
-      <c r="G28" s="0">
-        <v>3.7603189422424514</v>
+        <v>0.6656400977456062</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20.384781457079523</v>
       </c>
       <c r="H28" s="0">
-        <v>1.3644511915011648</v>
+        <v>0.2083082384113553</v>
       </c>
       <c r="I28" s="0">
-        <v>0.6656400977456062</v>
-      </c>
-      <c r="J28" s="3">
-        <v>20.384781457079523</v>
+        <v>2.357636173769699</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.8782097279713457</v>
       </c>
       <c r="K28" s="0">
-        <v>0.2083082384113553</v>
+        <v>4.082182320706016</v>
       </c>
       <c r="L28" s="0">
-        <v>2.357636173769699</v>
+        <v>1.2655501669904106</v>
       </c>
       <c r="M28" s="0">
-        <v>0.8782097279713457</v>
+        <v>0.4858994168980108</v>
       </c>
       <c r="N28" s="0">
-        <v>4.082182320706016</v>
+        <v>8.550694658690853</v>
       </c>
       <c r="O28" s="0">
-        <v>1.2655501669904106</v>
+        <v>3.940895529140042</v>
       </c>
       <c r="P28" s="0">
-        <v>0.4858994168980108</v>
+        <v>0.3797344338551025</v>
       </c>
       <c r="Q28" s="0">
-        <v>8.550694658690853</v>
+        <v>1.007602365939843</v>
       </c>
       <c r="R28" s="0">
-        <v>3.940895529140042</v>
-      </c>
-      <c r="S28" s="0">
-        <v>0.3797344338551025</v>
+        <v>4.50015124368013</v>
+      </c>
+      <c r="S28" s="2">
+        <v>14.08690619708975</v>
       </c>
       <c r="T28" s="0">
-        <v>1.007602365939843</v>
+        <v>4.617189905806763</v>
       </c>
       <c r="U28" s="0">
-        <v>4.50015124368013</v>
-      </c>
-      <c r="V28" s="2">
-        <v>14.08690619708975</v>
+        <v>7.413850936870714</v>
+      </c>
+      <c r="V28" s="0">
+        <v>3.4959929068379636</v>
       </c>
       <c r="W28" s="0">
-        <v>4.617189905806763</v>
+        <v>1.750012488654553</v>
       </c>
       <c r="X28" s="0">
-        <v>7.413850936870714</v>
+        <v>9.549200532631104</v>
       </c>
       <c r="Y28" s="0">
-        <v>3.4959929068379636</v>
+        <v>4.216928609208786</v>
       </c>
       <c r="Z28" s="0">
-        <v>1.750012488654553</v>
+        <v>2.945544051350174</v>
       </c>
       <c r="AA28" s="0">
-        <v>9.549200532631104</v>
+        <v>3.3588965970384446</v>
       </c>
       <c r="AB28" s="0">
-        <v>4.216928609208786</v>
+        <v>2.495939745387938</v>
       </c>
       <c r="AC28" s="0">
-        <v>2.945544051350174</v>
-      </c>
-      <c r="AD28" s="0">
-        <v>3.3588965970384446</v>
+        <v>1.9426374365741603</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>10.13192589254743</v>
       </c>
       <c r="AE28" s="0">
-        <v>2.495939745387938</v>
+        <v>7.295817678934377</v>
       </c>
       <c r="AF28" s="0">
-        <v>1.9426374365741603</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>10.13192589254743</v>
+        <v>3.7048908031485506</v>
+      </c>
+      <c r="AG28" s="0">
+        <v>8.036156818870097</v>
       </c>
       <c r="AH28" s="0">
-        <v>7.295817678934377</v>
+        <v>1.457611853619659</v>
       </c>
       <c r="AI28" s="0">
-        <v>3.7048908031485506</v>
+        <v>1.9542210230920893</v>
       </c>
       <c r="AJ28" s="0">
-        <v>8.036156818870097</v>
+        <v>0.3702937771276215</v>
       </c>
       <c r="AK28" s="0">
-        <v>1.457611853619659</v>
+        <v>4.922406273172976</v>
       </c>
       <c r="AL28" s="0">
-        <v>1.9542210230920893</v>
+        <v>4.923792197400139</v>
       </c>
       <c r="AM28" s="0">
-        <v>0.3702937771276215</v>
+        <v>0.2450609949787363</v>
       </c>
       <c r="AN28" s="0">
-        <v>4.922406273172976</v>
-      </c>
-      <c r="AO28" s="0">
-        <v>4.923792197400139</v>
-      </c>
-      <c r="AP28" s="0">
-        <v>0.2450609949787363</v>
-      </c>
-      <c r="AQ28" s="0">
         <v>5.0792512910393794</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0">
-        <v>2.65602839359196</v>
+        <v>0.6909213460768607</v>
       </c>
       <c r="C29" s="0">
-        <v>3.1780764591747364</v>
+        <v>0.34028687314195627</v>
       </c>
       <c r="D29" s="0">
-        <v>1.3545203869685654</v>
+        <v>0.4945564936624231</v>
       </c>
       <c r="E29" s="0">
-        <v>0.6909213460768607</v>
+        <v>1.3644511915011581</v>
       </c>
       <c r="F29" s="0">
-        <v>0.34028687314195627</v>
+        <v>0.15959401211005825</v>
       </c>
       <c r="G29" s="0">
-        <v>0.4945564936624231</v>
+        <v>4.81984698012491</v>
       </c>
       <c r="H29" s="0">
-        <v>1.3644511915011581</v>
+        <v>0.7794818293561646</v>
       </c>
       <c r="I29" s="0">
-        <v>0.15959401211005825</v>
+        <v>7.055663871151372</v>
       </c>
       <c r="J29" s="0">
-        <v>4.81984698012491</v>
+        <v>0.9674501171832417</v>
       </c>
       <c r="K29" s="0">
-        <v>0.7794818293561646</v>
+        <v>0.0670373132570108</v>
       </c>
       <c r="L29" s="0">
-        <v>7.055663871151372</v>
+        <v>0.20498197040919428</v>
       </c>
       <c r="M29" s="0">
-        <v>0.9674501171832417</v>
+        <v>0.48589941689804333</v>
       </c>
       <c r="N29" s="0">
-        <v>0.0670373132570108</v>
+        <v>4.186957835101358</v>
       </c>
       <c r="O29" s="0">
-        <v>0.20498197040919428</v>
+        <v>1.0723145431849503</v>
       </c>
       <c r="P29" s="0">
-        <v>0.48589941689804333</v>
+        <v>0.37973443385509625</v>
       </c>
       <c r="Q29" s="0">
-        <v>4.186957835101358</v>
+        <v>1.3217811411890212</v>
       </c>
       <c r="R29" s="0">
-        <v>1.0723145431849503</v>
+        <v>4.500151243680126</v>
       </c>
       <c r="S29" s="0">
-        <v>0.37973443385509625</v>
+        <v>0.2748517413663059</v>
       </c>
       <c r="T29" s="0">
-        <v>1.3217811411890212</v>
+        <v>0.8648032599118092</v>
       </c>
       <c r="U29" s="0">
-        <v>4.500151243680126</v>
+        <v>1.9123933444996233</v>
       </c>
       <c r="V29" s="0">
-        <v>0.2748517413663059</v>
+        <v>0.731836938524452</v>
       </c>
       <c r="W29" s="0">
-        <v>0.8648032599118092</v>
+        <v>0.7379862157840106</v>
       </c>
       <c r="X29" s="0">
-        <v>1.9123933444996233</v>
+        <v>2.362538991508034</v>
       </c>
       <c r="Y29" s="0">
-        <v>0.731836938524452</v>
+        <v>1.1880785251821757</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.7379862157840106</v>
+        <v>0.4657298735843241</v>
       </c>
       <c r="AA29" s="0">
-        <v>2.362538991508034</v>
+        <v>1.2169316529782235</v>
       </c>
       <c r="AB29" s="0">
-        <v>1.1880785251821757</v>
+        <v>2.4959397453879246</v>
       </c>
       <c r="AC29" s="0">
-        <v>0.4657298735843241</v>
+        <v>1.8152426797514907</v>
       </c>
       <c r="AD29" s="0">
-        <v>1.2169316529782235</v>
+        <v>1.8010359853574194</v>
       </c>
       <c r="AE29" s="0">
-        <v>2.4959397453879246</v>
+        <v>0.8910657348216308</v>
       </c>
       <c r="AF29" s="0">
-        <v>1.8152426797514907</v>
-      </c>
-      <c r="AG29" s="0">
-        <v>1.8010359853574194</v>
+        <v>1.305833307923685</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>19.113992872990863</v>
       </c>
       <c r="AH29" s="0">
-        <v>0.8910657348216308</v>
+        <v>0.16996910209795782</v>
       </c>
       <c r="AI29" s="0">
-        <v>1.305833307923685</v>
-      </c>
-      <c r="AJ29" s="2">
-        <v>19.113992872990863</v>
+        <v>1.9542210230920884</v>
+      </c>
+      <c r="AJ29" s="0">
+        <v>0.89756912108261</v>
       </c>
       <c r="AK29" s="0">
-        <v>0.16996910209795782</v>
+        <v>4.922406273172986</v>
       </c>
       <c r="AL29" s="0">
-        <v>1.9542210230920884</v>
+        <v>2.0760141510756087</v>
       </c>
       <c r="AM29" s="0">
-        <v>0.89756912108261</v>
+        <v>0.24506099497873163</v>
       </c>
       <c r="AN29" s="0">
-        <v>4.922406273172986</v>
-      </c>
-      <c r="AO29" s="0">
-        <v>2.0760141510756087</v>
-      </c>
-      <c r="AP29" s="0">
-        <v>0.24506099497873163</v>
-      </c>
-      <c r="AQ29" s="0">
         <v>1.8109923294833261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0">
-        <v>2.656028393591937</v>
+        <v>1.1264535900408597</v>
       </c>
       <c r="C30" s="0">
-        <v>2.2564242068380915</v>
-      </c>
-      <c r="D30" s="2">
-        <v>18.015290528882893</v>
+        <v>1.6853732750604886</v>
+      </c>
+      <c r="D30" s="0">
+        <v>4.174236223668812</v>
       </c>
       <c r="E30" s="0">
-        <v>1.1264535900408597</v>
+        <v>3.3253133877086207</v>
       </c>
       <c r="F30" s="0">
-        <v>1.6853732750604886</v>
-      </c>
-      <c r="G30" s="0">
-        <v>4.174236223668812</v>
+        <v>0.6993328032077081</v>
+      </c>
+      <c r="G30" s="2">
+        <v>13.825572664411284</v>
       </c>
       <c r="H30" s="0">
-        <v>3.3253133877086207</v>
-      </c>
-      <c r="I30" s="0">
-        <v>0.6993328032077081</v>
-      </c>
-      <c r="J30" s="2">
-        <v>13.825572664411284</v>
+        <v>0.44813525027031265</v>
+      </c>
+      <c r="I30" s="3">
+        <v>27.012192147044967</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.6755201490341565</v>
       </c>
       <c r="K30" s="0">
-        <v>0.44813525027031265</v>
-      </c>
-      <c r="L30" s="3">
-        <v>27.012192147044967</v>
-      </c>
-      <c r="M30" s="0">
-        <v>0.6755201490341565</v>
+        <v>6.930747086876285</v>
+      </c>
+      <c r="L30" s="0">
+        <v>0.1970926326846078</v>
+      </c>
+      <c r="M30" s="2">
+        <v>11.963384640897749</v>
       </c>
       <c r="N30" s="0">
-        <v>6.930747086876285</v>
+        <v>8.061170419799343</v>
       </c>
       <c r="O30" s="0">
-        <v>0.1970926326846078</v>
-      </c>
-      <c r="P30" s="2">
-        <v>11.963384640897749</v>
+        <v>3.266505440890292</v>
+      </c>
+      <c r="P30" s="0">
+        <v>3.242074631645585</v>
       </c>
       <c r="Q30" s="0">
-        <v>8.061170419799343</v>
-      </c>
-      <c r="R30" s="0">
-        <v>3.266505440890292</v>
-      </c>
-      <c r="S30" s="0">
-        <v>3.242074631645585</v>
+        <v>1.7696946298774483</v>
+      </c>
+      <c r="R30" s="2">
+        <v>13.261624469446184</v>
+      </c>
+      <c r="S30" s="2">
+        <v>12.585274794147916</v>
       </c>
       <c r="T30" s="0">
-        <v>1.7696946298774483</v>
-      </c>
-      <c r="U30" s="2">
-        <v>13.261624469446184</v>
-      </c>
-      <c r="V30" s="2">
-        <v>12.585274794147916</v>
+        <v>1.0232550852763496</v>
+      </c>
+      <c r="U30" s="0">
+        <v>3.3170288426018124</v>
+      </c>
+      <c r="V30" s="0">
+        <v>3.385150023632903</v>
       </c>
       <c r="W30" s="0">
-        <v>1.0232550852763496</v>
+        <v>1.8021551271217038</v>
       </c>
       <c r="X30" s="0">
-        <v>3.3170288426018124</v>
+        <v>2.3625389915080555</v>
       </c>
       <c r="Y30" s="0">
-        <v>3.385150023632903</v>
+        <v>4.609782776560422</v>
       </c>
       <c r="Z30" s="0">
-        <v>1.8021551271217038</v>
+        <v>0.01474101963509937</v>
       </c>
       <c r="AA30" s="0">
-        <v>2.3625389915080555</v>
+        <v>3.466012970897525</v>
       </c>
       <c r="AB30" s="0">
-        <v>4.609782776560422</v>
+        <v>0.5949048531201327</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.01474101963509937</v>
+        <v>2.1309332568235617</v>
       </c>
       <c r="AD30" s="0">
-        <v>3.466012970897525</v>
+        <v>1.8010359853574438</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.5949048531201327</v>
+        <v>7.67333687631069</v>
       </c>
       <c r="AF30" s="0">
-        <v>2.1309332568235617</v>
+        <v>3.107120928609438</v>
       </c>
       <c r="AG30" s="0">
-        <v>1.8010359853574438</v>
+        <v>1.53878518729027</v>
       </c>
       <c r="AH30" s="0">
-        <v>7.67333687631069</v>
+        <v>1.5105965604968588</v>
       </c>
       <c r="AI30" s="0">
-        <v>3.107120928609438</v>
+        <v>3.7778949702154</v>
       </c>
       <c r="AJ30" s="0">
-        <v>1.53878518729027</v>
+        <v>0.38857590403730385</v>
       </c>
       <c r="AK30" s="0">
-        <v>1.5105965604968588</v>
+        <v>8.994521437246252</v>
       </c>
       <c r="AL30" s="0">
-        <v>3.7778949702154</v>
+        <v>4.835628653708484</v>
       </c>
       <c r="AM30" s="0">
-        <v>0.38857590403730385</v>
+        <v>7.115004168935261</v>
       </c>
       <c r="AN30" s="0">
-        <v>8.994521437246252</v>
-      </c>
-      <c r="AO30" s="0">
-        <v>4.835628653708484</v>
-      </c>
-      <c r="AP30" s="0">
-        <v>7.115004168935261</v>
-      </c>
-      <c r="AQ30" s="0">
         <v>5.216520912296894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0">
-        <v>2.6560283935919715</v>
+        <v>1.2362127973737846</v>
       </c>
       <c r="C31" s="0">
-        <v>2.0101210123696935</v>
+        <v>0.34028687314194084</v>
       </c>
       <c r="D31" s="0">
-        <v>1.3545203869685818</v>
+        <v>4.195375822882537</v>
       </c>
       <c r="E31" s="0">
-        <v>1.2362127973737846</v>
+        <v>1.3644511915011628</v>
       </c>
       <c r="F31" s="0">
-        <v>0.34028687314194084</v>
+        <v>0.6558071099282036</v>
       </c>
       <c r="G31" s="0">
-        <v>4.195375822882537</v>
+        <v>4.8198469801248995</v>
       </c>
       <c r="H31" s="0">
-        <v>1.3644511915011628</v>
+        <v>0.9733853383496249</v>
       </c>
       <c r="I31" s="0">
-        <v>0.6558071099282036</v>
+        <v>7.055663871151376</v>
       </c>
       <c r="J31" s="0">
-        <v>4.8198469801248995</v>
+        <v>0.2896861578188809</v>
       </c>
       <c r="K31" s="0">
-        <v>0.9733853383496249</v>
+        <v>0.0670373132569947</v>
       </c>
       <c r="L31" s="0">
-        <v>7.055663871151376</v>
+        <v>1.5602001916954413</v>
       </c>
       <c r="M31" s="0">
-        <v>0.2896861578188809</v>
+        <v>0.4858994168980423</v>
       </c>
       <c r="N31" s="0">
-        <v>0.0670373132569947</v>
+        <v>7.585062156622387</v>
       </c>
       <c r="O31" s="0">
-        <v>1.5602001916954413</v>
+        <v>1.4055113254034424</v>
       </c>
       <c r="P31" s="0">
-        <v>0.4858994168980423</v>
+        <v>0.37973443385510836</v>
       </c>
       <c r="Q31" s="0">
-        <v>7.585062156622387</v>
+        <v>0.5852647090734419</v>
       </c>
       <c r="R31" s="0">
-        <v>1.4055113254034424</v>
-      </c>
-      <c r="S31" s="0">
-        <v>0.37973443385510836</v>
+        <v>4.500151243680133</v>
+      </c>
+      <c r="S31" s="2">
+        <v>10.246928757885964</v>
       </c>
       <c r="T31" s="0">
-        <v>0.5852647090734419</v>
+        <v>2.7477284994439337</v>
       </c>
       <c r="U31" s="0">
-        <v>4.500151243680133</v>
-      </c>
-      <c r="V31" s="2">
-        <v>10.246928757885964</v>
+        <v>1.912393344499628</v>
+      </c>
+      <c r="V31" s="0">
+        <v>1.5617726634122884</v>
       </c>
       <c r="W31" s="0">
-        <v>2.7477284994439337</v>
+        <v>1.0856916471388958</v>
       </c>
       <c r="X31" s="0">
-        <v>1.912393344499628</v>
+        <v>2.362538991508035</v>
       </c>
       <c r="Y31" s="0">
-        <v>1.5617726634122884</v>
+        <v>6.586356289515437</v>
       </c>
       <c r="Z31" s="0">
-        <v>1.0856916471388958</v>
+        <v>0.4657298735843577</v>
       </c>
       <c r="AA31" s="0">
-        <v>2.362538991508035</v>
+        <v>2.2672859921642505</v>
       </c>
       <c r="AB31" s="0">
-        <v>6.586356289515437</v>
+        <v>2.4959397453879526</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.4657298735843577</v>
+        <v>1.412838343850708</v>
       </c>
       <c r="AD31" s="0">
-        <v>2.2672859921642505</v>
+        <v>1.8010359853574378</v>
       </c>
       <c r="AE31" s="0">
-        <v>2.4959397453879526</v>
+        <v>4.25183100443591</v>
       </c>
       <c r="AF31" s="0">
-        <v>1.412838343850708</v>
-      </c>
-      <c r="AG31" s="0">
-        <v>1.8010359853574378</v>
+        <v>2.6590021171020726</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>22.079219004498846</v>
       </c>
       <c r="AH31" s="0">
-        <v>4.25183100443591</v>
+        <v>0.6408732683278145</v>
       </c>
       <c r="AI31" s="0">
-        <v>2.6590021171020726</v>
-      </c>
-      <c r="AJ31" s="3">
-        <v>22.079219004498846</v>
+        <v>1.9542210230920856</v>
+      </c>
+      <c r="AJ31" s="0">
+        <v>0.23357566417600648</v>
       </c>
       <c r="AK31" s="0">
-        <v>0.6408732683278145</v>
+        <v>4.922406273172971</v>
       </c>
       <c r="AL31" s="0">
-        <v>1.9542210230920856</v>
+        <v>2.1616590954892607</v>
       </c>
       <c r="AM31" s="0">
-        <v>0.23357566417600648</v>
+        <v>0.24506099497872766</v>
       </c>
       <c r="AN31" s="0">
-        <v>4.922406273172971</v>
-      </c>
-      <c r="AO31" s="0">
-        <v>2.1616590954892607</v>
-      </c>
-      <c r="AP31" s="0">
-        <v>0.24506099497872766</v>
-      </c>
-      <c r="AQ31" s="0">
         <v>4.027972789195529</v>
       </c>
     </row>
